--- a/inst/extdata/ISRaD_Template_Info.xlsx
+++ b/inst/extdata/ISRaD_Template_Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10610"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greymonroe/github/ISRaD/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA59F4F-F5E4-C14C-98C2-2AFC8EBE1E8D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E84A1B-3D3B-F84C-A1C9-5A4A887FD0AF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16840" yWindow="0" windowWidth="16760" windowHeight="21000" tabRatio="500" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16840" yWindow="460" windowWidth="16760" windowHeight="18860" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general info" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="860">
   <si>
     <t>curator_name</t>
   </si>
@@ -6225,8 +6225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I280"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView topLeftCell="E54" zoomScale="66" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -9807,7 +9807,7 @@
   <dimension ref="A1:I16385"/>
   <sheetViews>
     <sheetView zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -75878,8 +75878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I349"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -76631,7 +76631,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="17" customFormat="1" ht="16.25" customHeight="1">
+    <row r="33" spans="1:9" s="17" customFormat="1" ht="16.25" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>779</v>
       </c>
@@ -76651,7 +76651,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="17" customFormat="1">
+    <row r="34" spans="1:9" s="17" customFormat="1">
       <c r="A34" s="11" t="s">
         <v>776</v>
       </c>
@@ -76677,7 +76677,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="17" customFormat="1">
+    <row r="35" spans="1:9" s="17" customFormat="1">
       <c r="A35" s="11" t="s">
         <v>777</v>
       </c>
@@ -76697,7 +76697,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="17" customFormat="1">
+    <row r="36" spans="1:9" s="17" customFormat="1">
       <c r="A36" s="11" t="s">
         <v>780</v>
       </c>
@@ -76717,7 +76717,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="17" customFormat="1" ht="30">
+    <row r="37" spans="1:9" s="17" customFormat="1" ht="30">
       <c r="A37" s="11" t="s">
         <v>855</v>
       </c>
@@ -76732,10 +76732,13 @@
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="17" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="17" customFormat="1">
+        <v>824</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="17" customFormat="1">
       <c r="A38" s="11" t="s">
         <v>856</v>
       </c>
@@ -76753,7 +76756,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="17" customFormat="1" ht="30">
+    <row r="39" spans="1:9" s="17" customFormat="1" ht="30">
       <c r="A39" s="11" t="s">
         <v>857</v>
       </c>
@@ -76771,7 +76774,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="17" customFormat="1">
+    <row r="40" spans="1:9" s="17" customFormat="1">
       <c r="A40" s="11" t="s">
         <v>746</v>
       </c>
@@ -76797,7 +76800,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="17" customFormat="1" ht="16" customHeight="1">
+    <row r="41" spans="1:9" s="17" customFormat="1" ht="16" customHeight="1">
       <c r="A41" s="11" t="s">
         <v>747</v>
       </c>
@@ -76821,7 +76824,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="17" customFormat="1">
+    <row r="42" spans="1:9" s="17" customFormat="1">
       <c r="A42" s="11" t="s">
         <v>748</v>
       </c>
@@ -76845,7 +76848,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="17" customFormat="1">
+    <row r="43" spans="1:9" s="17" customFormat="1">
       <c r="A43" s="11" t="s">
         <v>749</v>
       </c>
@@ -76869,7 +76872,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="17" customFormat="1" ht="39" customHeight="1">
+    <row r="44" spans="1:9" s="17" customFormat="1" ht="39" customHeight="1">
       <c r="A44" s="11" t="s">
         <v>750</v>
       </c>
@@ -76889,7 +76892,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="17" customFormat="1">
+    <row r="45" spans="1:9" s="17" customFormat="1">
       <c r="A45" s="11" t="s">
         <v>795</v>
       </c>
@@ -76915,7 +76918,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="17" customFormat="1" ht="16" customHeight="1">
+    <row r="46" spans="1:9" s="17" customFormat="1" ht="16" customHeight="1">
       <c r="A46" s="11" t="s">
         <v>796</v>
       </c>
@@ -76939,7 +76942,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="17" customFormat="1">
+    <row r="47" spans="1:9" s="17" customFormat="1">
       <c r="A47" s="11" t="s">
         <v>797</v>
       </c>
@@ -76963,7 +76966,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="17" customFormat="1">
+    <row r="48" spans="1:9" s="17" customFormat="1">
       <c r="A48" s="11" t="s">
         <v>798</v>
       </c>
@@ -78461,7 +78464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="111" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="111" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/inst/extdata/ISRaD_Template_Info.xlsx
+++ b/inst/extdata/ISRaD_Template_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greymonroe/github/ISRaD/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E84A1B-3D3B-F84C-A1C9-5A4A887FD0AF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C04F07F-EDF1-484F-BE3B-1CF572F45803}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16840" yWindow="460" windowWidth="16760" windowHeight="18860" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="740" windowWidth="30600" windowHeight="18860" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general info" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="858">
   <si>
     <t>curator_name</t>
   </si>
@@ -480,9 +480,6 @@
   </si>
   <si>
     <t>Ferrihydrite Abundance</t>
-  </si>
-  <si>
-    <t>fraction_name</t>
   </si>
   <si>
     <t>Fraction Sample Name</t>
@@ -901,9 +898,6 @@
   </si>
   <si>
     <t>Control or Treatment</t>
-  </si>
-  <si>
-    <t>Control, Treatment, or Blank</t>
   </si>
   <si>
     <t>Indication of whether samples were collected from a natural soil (control) or one subjected to an experimental treatment. Blank values are assumed to represent  Control conditions.</t>
@@ -2560,9 +2554,6 @@
     <t>character</t>
   </si>
   <si>
-    <t>Yes, or Blank</t>
-  </si>
-  <si>
     <t>inf</t>
   </si>
   <si>
@@ -2605,9 +2596,6 @@
     <t>yes, blank</t>
   </si>
   <si>
-    <t>burn, blank</t>
-  </si>
-  <si>
     <t>"+/++/+++"</t>
   </si>
   <si>
@@ -2629,9 +2617,6 @@
     <t>Concentration of interstitial analyte (mg C L-1)</t>
   </si>
   <si>
-    <t>yes or blank</t>
-  </si>
-  <si>
     <t>bulk, root, root-free, litter, other</t>
   </si>
   <si>
@@ -2663,19 +2648,35 @@
   </si>
   <si>
     <t>Reported Value After Transformation</t>
+  </si>
+  <si>
+    <t>Control, Treatment</t>
+  </si>
+  <si>
+    <t>burn</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2779,6 +2780,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2818,297 +2820,297 @@
   </borders>
   <cellStyleXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3117,34 +3119,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3153,85 +3155,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="289"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="289"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3879,74 +3882,74 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="64">
       <c r="A2" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="48">
       <c r="A3" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32">
       <c r="A4" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="48">
       <c r="A5" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>264</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="160">
       <c r="A6" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="80">
       <c r="A7" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="64">
       <c r="A8" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="80">
       <c r="A9" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4009,13 +4012,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -4024,44 +4027,44 @@
         <v>20</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30">
       <c r="A2" s="24" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
       <c r="A3" s="24" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F3" s="12"/>
     </row>
@@ -4070,16 +4073,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F4" s="12"/>
     </row>
@@ -4088,7 +4091,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>3</v>
@@ -4097,7 +4100,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F5" s="12"/>
     </row>
@@ -4106,7 +4109,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>6</v>
@@ -4115,7 +4118,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F6" s="12"/>
     </row>
@@ -4124,7 +4127,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>9</v>
@@ -4133,7 +4136,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F7" s="12"/>
     </row>
@@ -4142,16 +4145,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F8" s="12"/>
     </row>
@@ -4160,16 +4163,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F9" s="12"/>
     </row>
@@ -4178,25 +4181,25 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="24" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B11" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>17</v>
@@ -4205,43 +4208,43 @@
         <v>18</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="30">
       <c r="A12" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" t="s">
+        <v>815</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B12" t="s">
-        <v>817</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>219</v>
-      </c>
       <c r="E12" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="30">
       <c r="A13" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B13" t="s">
+        <v>815</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="B13" t="s">
-        <v>817</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="E13" s="25" t="s">
         <v>377</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -4259,7 +4262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -4275,13 +4278,13 @@
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>19</v>
@@ -4290,41 +4293,41 @@
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>820</v>
-      </c>
       <c r="H1" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>819</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="24" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>822</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>824</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4332,32 +4335,32 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="26" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>23</v>
@@ -4365,11 +4368,11 @@
       <c r="D4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="54" t="s">
-        <v>303</v>
+      <c r="E4" s="55" t="s">
+        <v>301</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G4" s="11">
         <v>-180</v>
@@ -4380,10 +4383,10 @@
     </row>
     <row r="5" spans="1:9" ht="23" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>25</v>
@@ -4391,9 +4394,9 @@
       <c r="D5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="54"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G5" s="11">
         <v>-180</v>
@@ -4404,10 +4407,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B6" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>26</v>
@@ -4416,23 +4419,23 @@
         <v>27</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30">
       <c r="A7" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>30</v>
@@ -4441,10 +4444,10 @@
         <v>31</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G7" s="11">
         <v>413</v>
@@ -4458,19 +4461,19 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -4493,8 +4496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="107" zoomScaleNormal="70" zoomScalePageLayoutView="119" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="E15" zoomScale="107" zoomScaleNormal="70" zoomScalePageLayoutView="119" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -4511,13 +4514,13 @@
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>19</v>
@@ -4526,39 +4529,39 @@
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>820</v>
-      </c>
       <c r="H1" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>819</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="24" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4566,108 +4569,108 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="B4" t="s">
+        <v>815</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="B4" t="s">
-        <v>817</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>402</v>
-      </c>
       <c r="F4" s="46" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30">
       <c r="A5" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B6" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B7" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="54" t="s">
-        <v>316</v>
+      <c r="E7" s="55" t="s">
+        <v>314</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G7">
         <v>-180</v>
@@ -4678,20 +4681,20 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B8" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="54"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G8">
         <v>-180</v>
@@ -4702,115 +4705,115 @@
     </row>
     <row r="9" spans="1:9" ht="30">
       <c r="A9" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B9" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>289</v>
-      </c>
       <c r="F9" s="46" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I9" s="46" t="s">
-        <v>288</v>
+        <v>855</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B10" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B12" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>277</v>
-      </c>
       <c r="F12" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" s="46" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="I12" s="46"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B13" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G13">
         <v>-60</v>
@@ -4821,22 +4824,22 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B14" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>295</v>
-      </c>
       <c r="F14" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -4847,81 +4850,81 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B15" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B16" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>58</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1">
       <c r="A17" s="13" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B17" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F17" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="I17" s="47" t="s">
         <v>824</v>
-      </c>
-      <c r="I17" s="47" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1">
       <c r="A18" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="B18" t="s">
+        <v>815</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="B18" t="s">
-        <v>817</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>409</v>
-      </c>
       <c r="F18" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -4929,22 +4932,22 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B19" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G19">
         <v>-60</v>
@@ -4955,22 +4958,22 @@
     </row>
     <row r="20" spans="1:9" ht="30">
       <c r="A20" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B20" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -4981,10 +4984,10 @@
     </row>
     <row r="21" spans="1:9" ht="46.25" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B21" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>47</v>
@@ -4993,21 +4996,21 @@
         <v>48</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B22" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>55</v>
@@ -5016,18 +5019,18 @@
         <v>46</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B23" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>59</v>
@@ -5036,10 +5039,10 @@
         <v>43</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -5047,10 +5050,10 @@
     </row>
     <row r="24" spans="1:9" ht="30">
       <c r="A24" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B24" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>42</v>
@@ -5059,24 +5062,24 @@
         <v>43</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30">
       <c r="A25" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B25" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>60</v>
@@ -5085,84 +5088,84 @@
         <v>43</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="60">
       <c r="A26" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B26" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>44</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B27" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B28" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C28" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>224</v>
-      </c>
       <c r="E28" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="45">
       <c r="A29" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B29" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>56</v>
@@ -5171,21 +5174,21 @@
         <v>57</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="30">
       <c r="A30" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B30" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>34</v>
@@ -5194,21 +5197,21 @@
         <v>35</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F30" s="46" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30">
       <c r="A31" s="14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B31" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>32</v>
@@ -5217,10 +5220,10 @@
         <v>33</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F31" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -5231,10 +5234,10 @@
     </row>
     <row r="32" spans="1:9" ht="30">
       <c r="A32" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B32" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>36</v>
@@ -5243,10 +5246,10 @@
         <v>37</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F32" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -5258,10 +5261,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B33" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>38</v>
@@ -5270,21 +5273,21 @@
         <v>39</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="45">
       <c r="A34" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B34" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>40</v>
@@ -5293,21 +5296,21 @@
         <v>41</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="27.5" customHeight="1">
       <c r="A35" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B35" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>61</v>
@@ -5316,24 +5319,24 @@
         <v>49</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F35" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" s="46" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30">
       <c r="A36" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B36" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>62</v>
@@ -5342,24 +5345,24 @@
         <v>49</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F36" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G36" s="46">
         <v>0</v>
       </c>
       <c r="H36" s="46" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="30">
       <c r="A37" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B37" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>63</v>
@@ -5368,16 +5371,16 @@
         <v>43</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F37" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" s="46" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -5404,8 +5407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" zoomScale="117" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="E1" zoomScale="117" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -5421,13 +5424,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>19</v>
@@ -5436,39 +5439,39 @@
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>820</v>
-      </c>
       <c r="H1" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>819</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="24" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5476,88 +5479,88 @@
         <v>21</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B4" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F4" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28" customHeight="1">
       <c r="A6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B6" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="55" t="s">
-        <v>454</v>
+      <c r="E6" s="56" t="s">
+        <v>452</v>
       </c>
       <c r="F6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G6">
         <v>-180</v>
@@ -5568,20 +5571,20 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B7" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="55"/>
+      <c r="E7" s="56"/>
       <c r="F7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G7">
         <v>-180</v>
@@ -5592,176 +5595,176 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="27" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="E8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B9" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F9" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I9" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B10" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F10" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F11" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I11" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B12" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E12" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F12" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I12" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B13" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E13" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F13" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I13" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B14" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E14" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F14" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B15" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C15" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E15" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F15" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I15" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B16" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C16" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E16" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -5772,88 +5775,88 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
+        <v>488</v>
+      </c>
+      <c r="B17" t="s">
+        <v>815</v>
+      </c>
+      <c r="C17" t="s">
+        <v>489</v>
+      </c>
+      <c r="E17" t="s">
         <v>490</v>
       </c>
-      <c r="B17" t="s">
-        <v>817</v>
-      </c>
-      <c r="C17" t="s">
-        <v>491</v>
-      </c>
-      <c r="E17" t="s">
-        <v>492</v>
-      </c>
       <c r="F17" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I17" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B18" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D18" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E18" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F18" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I18" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B19" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C19" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D19" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E19" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F19" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I19" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B20" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C20" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D20" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E20" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G20">
         <v>-60</v>
@@ -5864,22 +5867,22 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B21" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D21" t="s">
         <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -5890,22 +5893,22 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B22" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C22" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D22" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -5916,22 +5919,22 @@
     </row>
     <row r="23" spans="1:9" ht="115.25" customHeight="1">
       <c r="A23" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B23" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C23" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -5942,42 +5945,42 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B24" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C24" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E24" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B25" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C25" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D25" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E25" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G25">
         <v>-160</v>
@@ -5988,108 +5991,108 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B26" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C26" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D26" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E26" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B27" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C27" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D27" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F27" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B28" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C28" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E28" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F28" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B29" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C29" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D29" t="s">
         <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G29" s="47">
         <v>1900</v>
       </c>
       <c r="H29" s="47" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B30" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C30" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D30" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E30" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G30">
         <v>-1000</v>
@@ -6100,62 +6103,62 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B31" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C31" t="s">
+        <v>503</v>
+      </c>
+      <c r="D31" t="s">
+        <v>457</v>
+      </c>
+      <c r="E31" t="s">
         <v>505</v>
       </c>
-      <c r="D31" t="s">
-        <v>459</v>
-      </c>
-      <c r="E31" t="s">
-        <v>507</v>
-      </c>
       <c r="F31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B32" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C32" t="s">
+        <v>504</v>
+      </c>
+      <c r="D32" t="s">
+        <v>457</v>
+      </c>
+      <c r="E32" t="s">
         <v>506</v>
       </c>
-      <c r="D32" t="s">
-        <v>459</v>
-      </c>
-      <c r="E32" t="s">
-        <v>508</v>
-      </c>
       <c r="F32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B33" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C33" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D33" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E33" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -6166,42 +6169,42 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B34" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C34" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E34" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B35" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C35" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D35" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E35" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -6225,8 +6228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I280"/>
   <sheetViews>
-    <sheetView topLeftCell="E54" zoomScale="66" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView topLeftCell="E56" zoomScale="111" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -6244,13 +6247,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>19</v>
@@ -6259,36 +6262,36 @@
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>820</v>
-      </c>
       <c r="H1" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>819</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="2" spans="1:9" customFormat="1">
       <c r="A2" s="24" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G2" s="42"/>
       <c r="H2" s="42"/>
@@ -6299,131 +6302,131 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B6" t="s">
+        <v>814</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>849</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="B6" t="s">
-        <v>816</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>854</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>596</v>
-      </c>
       <c r="F6" s="44" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="10" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B7" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="10" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B8" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>602</v>
-      </c>
       <c r="F8" s="42" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="10" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B9" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>65</v>
@@ -6432,18 +6435,18 @@
         <v>43</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B10" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>66</v>
@@ -6452,97 +6455,97 @@
         <v>43</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30">
       <c r="A11" s="11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="11" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>824</v>
-      </c>
-      <c r="I12" s="42" t="s">
-        <v>839</v>
+        <v>822</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="11" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>68</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="42" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>70</v>
@@ -6551,21 +6554,21 @@
         <v>71</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>824</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>840</v>
+        <v>822</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>72</v>
@@ -6574,18 +6577,18 @@
         <v>73</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>74</v>
@@ -6594,36 +6597,36 @@
         <v>73</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30">
       <c r="A19" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>78</v>
@@ -6632,10 +6635,10 @@
         <v>37</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G19" s="42">
         <v>0</v>
@@ -6646,10 +6649,10 @@
     </row>
     <row r="20" spans="1:8" ht="30">
       <c r="A20" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>79</v>
@@ -6658,10 +6661,10 @@
         <v>37</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G20" s="42">
         <v>0</v>
@@ -6672,10 +6675,10 @@
     </row>
     <row r="21" spans="1:8" ht="30">
       <c r="A21" s="11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>80</v>
@@ -6684,10 +6687,10 @@
         <v>37</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G21" s="42">
         <v>0</v>
@@ -6698,10 +6701,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="11" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>81</v>
@@ -6710,10 +6713,10 @@
         <v>37</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G22" s="42">
         <v>0</v>
@@ -6724,36 +6727,36 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>82</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G23" s="42">
         <v>0</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="11" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>83</v>
@@ -6762,54 +6765,54 @@
         <v>84</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="27.5" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>85</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G25" s="42">
         <v>0</v>
       </c>
       <c r="H25" s="42" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="11" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>76</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G26" s="42">
         <v>0</v>
@@ -6820,20 +6823,20 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>77</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G27" s="42">
         <v>0</v>
@@ -6844,20 +6847,20 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G28" s="42">
         <v>0</v>
@@ -6868,30 +6871,30 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C29" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>229</v>
-      </c>
       <c r="E29" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>86</v>
@@ -6900,18 +6903,18 @@
         <v>87</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>88</v>
@@ -6920,112 +6923,112 @@
         <v>89</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F31" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="11" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>89</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F32" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="11" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="54" t="s">
-        <v>349</v>
+      <c r="E33" s="55" t="s">
+        <v>347</v>
       </c>
       <c r="F33" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="11" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="54"/>
+      <c r="E34" s="55"/>
       <c r="F34" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="11" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="54"/>
+      <c r="E35" s="55"/>
       <c r="F35" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="11" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="54"/>
+      <c r="E36" s="55"/>
       <c r="F36" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>90</v>
@@ -7033,17 +7036,17 @@
       <c r="D37" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E37" s="54"/>
+      <c r="E37" s="55"/>
       <c r="F37" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="11" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>91</v>
@@ -7052,10 +7055,10 @@
         <v>37</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F38" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G38" s="42">
         <v>0</v>
@@ -7066,22 +7069,22 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F39" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G39" s="42">
         <v>0</v>
@@ -7092,22 +7095,22 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F40" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G40" s="42">
         <v>0</v>
@@ -7118,22 +7121,22 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F41" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G41" s="42">
         <v>0</v>
@@ -7144,10 +7147,10 @@
     </row>
     <row r="42" spans="1:8" ht="30">
       <c r="A42" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>92</v>
@@ -7156,18 +7159,18 @@
         <v>49</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F42" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="30">
       <c r="A43" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>93</v>
@@ -7176,18 +7179,18 @@
         <v>49</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F43" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>94</v>
@@ -7196,10 +7199,10 @@
         <v>37</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G44" s="42">
         <v>0</v>
@@ -7210,10 +7213,10 @@
     </row>
     <row r="45" spans="1:8" ht="30">
       <c r="A45" s="11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>95</v>
@@ -7222,18 +7225,18 @@
         <v>96</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F45" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30">
       <c r="A46" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>97</v>
@@ -7242,10 +7245,10 @@
         <v>37</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G46" s="42">
         <v>0</v>
@@ -7256,22 +7259,22 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F47" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G47" s="42">
         <v>0</v>
@@ -7282,22 +7285,22 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G48" s="42">
         <v>0</v>
@@ -7308,10 +7311,10 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>101</v>
@@ -7320,36 +7323,36 @@
         <v>100</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F49" s="42" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>102</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F50" s="42" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="11" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>103</v>
@@ -7358,36 +7361,36 @@
         <v>104</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F51" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G51" s="42">
         <v>1900</v>
       </c>
       <c r="H51" s="52" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>105</v>
       </c>
       <c r="D52" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G52" s="48">
         <v>-1000</v>
@@ -7398,22 +7401,22 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D53" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G53" s="48">
         <v>-1000</v>
@@ -7424,42 +7427,42 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="11" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>106</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F54" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>107</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F55" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G55" s="48">
         <v>0</v>
@@ -7470,50 +7473,50 @@
     </row>
     <row r="56" spans="1:8" ht="30">
       <c r="A56" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F56" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="30">
       <c r="A57" s="11" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>108</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F57" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="98.5" customHeight="1">
       <c r="A58" s="46" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>109</v>
@@ -7522,112 +7525,112 @@
         <v>110</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F58" s="53" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>111</v>
       </c>
       <c r="F59" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30">
       <c r="A60" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>111</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="11" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>112</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F61" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="11" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>113</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F62" s="42" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>114</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F63" s="42" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="11" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>115</v>
@@ -7635,11 +7638,11 @@
       <c r="D64" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E64" s="54" t="s">
-        <v>338</v>
+      <c r="E64" s="55" t="s">
+        <v>336</v>
       </c>
       <c r="F64" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G64" s="42">
         <v>0</v>
@@ -7650,10 +7653,10 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="11" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>117</v>
@@ -7661,9 +7664,9 @@
       <c r="D65" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E65" s="54"/>
+      <c r="E65" s="55"/>
       <c r="F65" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G65" s="42">
         <v>0</v>
@@ -7674,10 +7677,10 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="11" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>118</v>
@@ -7685,9 +7688,9 @@
       <c r="D66" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E66" s="54"/>
+      <c r="E66" s="55"/>
       <c r="F66" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G66" s="42">
         <v>0</v>
@@ -7698,10 +7701,10 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="11" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>119</v>
@@ -7709,9 +7712,9 @@
       <c r="D67" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E67" s="54"/>
+      <c r="E67" s="55"/>
       <c r="F67" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G67" s="42">
         <v>0</v>
@@ -7722,30 +7725,30 @@
     </row>
     <row r="68" spans="1:8" ht="30">
       <c r="A68" s="11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F68" s="42" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="11" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>120</v>
@@ -7753,11 +7756,11 @@
       <c r="D69" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E69" s="54" t="s">
-        <v>341</v>
+      <c r="E69" s="55" t="s">
+        <v>339</v>
       </c>
       <c r="F69" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G69" s="42">
         <v>0</v>
@@ -7768,10 +7771,10 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="11" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>121</v>
@@ -7779,9 +7782,9 @@
       <c r="D70" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E70" s="54"/>
+      <c r="E70" s="55"/>
       <c r="F70" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G70" s="42">
         <v>0</v>
@@ -7792,10 +7795,10 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>122</v>
@@ -7803,9 +7806,9 @@
       <c r="D71" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E71" s="54"/>
+      <c r="E71" s="55"/>
       <c r="F71" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G71" s="42">
         <v>0</v>
@@ -7816,20 +7819,20 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E72" s="54"/>
+      <c r="E72" s="55"/>
       <c r="F72" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G72" s="42">
         <v>0</v>
@@ -7840,30 +7843,30 @@
     </row>
     <row r="73" spans="1:8" ht="30">
       <c r="A73" s="11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>123</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F73" s="42" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>124</v>
@@ -7871,11 +7874,11 @@
       <c r="D74" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E74" s="54" t="s">
-        <v>343</v>
+      <c r="E74" s="55" t="s">
+        <v>341</v>
       </c>
       <c r="F74" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G74" s="42">
         <v>0</v>
@@ -7886,10 +7889,10 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>125</v>
@@ -7897,9 +7900,9 @@
       <c r="D75" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E75" s="54"/>
+      <c r="E75" s="55"/>
       <c r="F75" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G75" s="42">
         <v>0</v>
@@ -7910,10 +7913,10 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>126</v>
@@ -7921,9 +7924,9 @@
       <c r="D76" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E76" s="54"/>
+      <c r="E76" s="55"/>
       <c r="F76" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G76" s="42">
         <v>0</v>
@@ -7934,10 +7937,10 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="11" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>127</v>
@@ -7945,9 +7948,9 @@
       <c r="D77" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E77" s="54"/>
+      <c r="E77" s="55"/>
       <c r="F77" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G77" s="42">
         <v>0</v>
@@ -7958,22 +7961,22 @@
     </row>
     <row r="78" spans="1:8" ht="30">
       <c r="A78" s="11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>128</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F78" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G78" s="42">
         <v>0</v>
@@ -7984,10 +7987,10 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>129</v>
@@ -7995,11 +7998,11 @@
       <c r="D79" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E79" s="54" t="s">
-        <v>343</v>
+      <c r="E79" s="55" t="s">
+        <v>341</v>
       </c>
       <c r="F79" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G79" s="42">
         <v>0</v>
@@ -8010,10 +8013,10 @@
     </row>
     <row r="80" spans="1:8" ht="30" customHeight="1">
       <c r="A80" s="11" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>130</v>
@@ -8021,9 +8024,9 @@
       <c r="D80" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E80" s="54"/>
+      <c r="E80" s="55"/>
       <c r="F80" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G80" s="42">
         <v>0</v>
@@ -8034,10 +8037,10 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>131</v>
@@ -8045,9 +8048,9 @@
       <c r="D81" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E81" s="54"/>
+      <c r="E81" s="55"/>
       <c r="F81" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G81" s="42">
         <v>0</v>
@@ -8058,22 +8061,22 @@
     </row>
     <row r="82" spans="1:9" ht="30">
       <c r="A82" s="11" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>132</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F82" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G82" s="42">
         <v>0</v>
@@ -8084,10 +8087,10 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>133</v>
@@ -8095,11 +8098,11 @@
       <c r="D83" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E83" s="56" t="s">
-        <v>351</v>
+      <c r="E83" s="57" t="s">
+        <v>349</v>
       </c>
       <c r="F83" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G83" s="42">
         <v>0</v>
@@ -8108,15 +8111,15 @@
         <v>100</v>
       </c>
       <c r="I83" s="42" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>135</v>
@@ -8124,9 +8127,9 @@
       <c r="D84" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E84" s="56"/>
+      <c r="E84" s="57"/>
       <c r="F84" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G84" s="42">
         <v>0</v>
@@ -8135,15 +8138,15 @@
         <v>100</v>
       </c>
       <c r="I84" s="42" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="11" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>136</v>
@@ -8151,9 +8154,9 @@
       <c r="D85" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E85" s="56"/>
+      <c r="E85" s="57"/>
       <c r="F85" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G85" s="42">
         <v>0</v>
@@ -8162,15 +8165,15 @@
         <v>100</v>
       </c>
       <c r="I85" s="42" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>137</v>
@@ -8178,9 +8181,9 @@
       <c r="D86" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E86" s="56"/>
+      <c r="E86" s="57"/>
       <c r="F86" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G86" s="42">
         <v>0</v>
@@ -8189,15 +8192,15 @@
         <v>100</v>
       </c>
       <c r="I86" s="42" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>138</v>
@@ -8205,9 +8208,9 @@
       <c r="D87" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E87" s="56"/>
+      <c r="E87" s="57"/>
       <c r="F87" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G87" s="42">
         <v>0</v>
@@ -8216,15 +8219,15 @@
         <v>100</v>
       </c>
       <c r="I87" s="42" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="11" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>139</v>
@@ -8232,9 +8235,9 @@
       <c r="D88" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E88" s="56"/>
+      <c r="E88" s="57"/>
       <c r="F88" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G88" s="42">
         <v>0</v>
@@ -8243,15 +8246,15 @@
         <v>100</v>
       </c>
       <c r="I88" s="42" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="11" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>140</v>
@@ -8259,9 +8262,9 @@
       <c r="D89" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E89" s="56"/>
+      <c r="E89" s="57"/>
       <c r="F89" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G89" s="42">
         <v>0</v>
@@ -8270,15 +8273,15 @@
         <v>100</v>
       </c>
       <c r="I89" s="42" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="11" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>141</v>
@@ -8286,9 +8289,9 @@
       <c r="D90" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E90" s="56"/>
+      <c r="E90" s="57"/>
       <c r="F90" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G90" s="42">
         <v>0</v>
@@ -8297,15 +8300,15 @@
         <v>100</v>
       </c>
       <c r="I90" s="42" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="11" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>142</v>
@@ -8313,9 +8316,9 @@
       <c r="D91" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E91" s="56"/>
+      <c r="E91" s="57"/>
       <c r="F91" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G91" s="42">
         <v>0</v>
@@ -8324,15 +8327,15 @@
         <v>100</v>
       </c>
       <c r="I91" s="42" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="30">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="11" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>143</v>
@@ -8340,9 +8343,9 @@
       <c r="D92" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E92" s="56"/>
+      <c r="E92" s="57"/>
       <c r="F92" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G92" s="42">
         <v>0</v>
@@ -8351,15 +8354,15 @@
         <v>100</v>
       </c>
       <c r="I92" s="42" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="11" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>144</v>
@@ -8367,9 +8370,9 @@
       <c r="D93" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E93" s="56"/>
+      <c r="E93" s="57"/>
       <c r="F93" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G93" s="42">
         <v>0</v>
@@ -8378,15 +8381,15 @@
         <v>100</v>
       </c>
       <c r="I93" s="42" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="30">
       <c r="A94" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>145</v>
@@ -8394,9 +8397,9 @@
       <c r="D94" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E94" s="56"/>
+      <c r="E94" s="57"/>
       <c r="F94" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G94" s="42">
         <v>0</v>
@@ -8405,15 +8408,15 @@
         <v>100</v>
       </c>
       <c r="I94" s="42" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>146</v>
@@ -8421,9 +8424,9 @@
       <c r="D95" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E95" s="56"/>
+      <c r="E95" s="57"/>
       <c r="F95" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G95" s="42">
         <v>0</v>
@@ -8432,15 +8435,15 @@
         <v>100</v>
       </c>
       <c r="I95" s="42" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>147</v>
@@ -8448,9 +8451,9 @@
       <c r="D96" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E96" s="56"/>
+      <c r="E96" s="57"/>
       <c r="F96" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G96" s="42">
         <v>0</v>
@@ -8459,25 +8462,25 @@
         <v>100</v>
       </c>
       <c r="I96" s="42" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E97" s="56"/>
+      <c r="E97" s="57"/>
       <c r="F97" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G97" s="42">
         <v>0</v>
@@ -8486,25 +8489,25 @@
         <v>100</v>
       </c>
       <c r="I97" s="42" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E98" s="56"/>
+      <c r="E98" s="57"/>
       <c r="F98" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G98" s="42">
         <v>0</v>
@@ -8513,7 +8516,7 @@
         <v>100</v>
       </c>
       <c r="I98" s="42" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -9806,7 +9809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I16385"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="200" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -9825,13 +9828,13 @@
   <sheetData>
     <row r="1" spans="1:9" s="31" customFormat="1">
       <c r="A1" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>19</v>
@@ -9840,39 +9843,39 @@
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>820</v>
-      </c>
       <c r="H1" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>819</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="45">
       <c r="A2" s="24" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9880,229 +9883,229 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="35" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="35" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="35" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B6" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G6" s="28">
         <v>0</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="32" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="31" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I8" s="49" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="31" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="31" t="s">
+        <v>658</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>815</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>659</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>661</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>660</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>817</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>661</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>663</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>662</v>
-      </c>
       <c r="F10" s="49" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="31" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G11" s="28">
         <v>0</v>
       </c>
       <c r="H11" s="49" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="31" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G12" s="28">
         <v>-60</v>
@@ -10113,22 +10116,22 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="31" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D13" t="s">
         <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G13" s="28">
         <v>0</v>
@@ -10139,22 +10142,22 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="31" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G14" s="28">
         <v>0</v>
@@ -10165,19 +10168,19 @@
     </row>
     <row r="15" spans="1:9" ht="81.5" customHeight="1">
       <c r="A15" s="31" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G15" s="28">
         <v>0</v>
@@ -10185,22 +10188,22 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="31" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G16" s="28">
         <v>-160</v>
@@ -10211,82 +10214,82 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="31" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="31" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="31" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="31" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>104</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G20" s="28">
         <v>1990</v>
@@ -10297,22 +10300,22 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="31" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G21" s="28">
         <v>-1000</v>
@@ -10323,62 +10326,62 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="31" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="31" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="31" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G24" s="28">
         <v>0</v>
@@ -10389,42 +10392,42 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="31" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="31" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F26" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -75878,8 +75881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I349"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="C1" zoomScale="114" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -75897,13 +75900,13 @@
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>19</v>
@@ -75912,39 +75915,39 @@
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>820</v>
-      </c>
       <c r="H1" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>819</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="30">
       <c r="A2" s="24" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="17" customFormat="1">
@@ -75952,317 +75955,317 @@
         <v>21</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="17" customFormat="1">
       <c r="A4" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="17" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="17" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="17" customFormat="1" ht="30">
       <c r="A7" s="10" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="17" customFormat="1" ht="30">
       <c r="A8" s="11" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="17" customFormat="1" ht="32.5" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="17" customFormat="1">
       <c r="A10" s="10" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="17" customFormat="1">
       <c r="A11" s="10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>247</v>
-      </c>
       <c r="E11" s="11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="17" customFormat="1">
       <c r="A12" s="10" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="17" customFormat="1">
       <c r="A13" s="10" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="17" customFormat="1">
       <c r="A14" s="39" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="17" customFormat="1">
       <c r="A15" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="17" customFormat="1">
       <c r="A16" s="11" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="17" customFormat="1">
       <c r="A17" s="11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G17" s="17">
         <v>0</v>
@@ -76273,68 +76276,66 @@
     </row>
     <row r="18" spans="1:8" s="17" customFormat="1">
       <c r="A18" s="11" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="17" customFormat="1">
       <c r="A19" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G19" s="42">
         <v>0</v>
       </c>
-      <c r="H19" s="42" t="s">
-        <v>826</v>
-      </c>
+      <c r="H19" s="54"/>
     </row>
     <row r="20" spans="1:8" s="17" customFormat="1">
       <c r="A20" s="11" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G20" s="17">
         <v>0</v>
@@ -76345,22 +76346,22 @@
     </row>
     <row r="21" spans="1:8" s="17" customFormat="1">
       <c r="A21" s="11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G21" s="17">
         <v>0</v>
@@ -76371,22 +76372,22 @@
     </row>
     <row r="22" spans="1:8" s="17" customFormat="1">
       <c r="A22" s="11" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G22" s="17">
         <v>0</v>
@@ -76397,22 +76398,22 @@
     </row>
     <row r="23" spans="1:8" s="17" customFormat="1" ht="30">
       <c r="A23" s="11" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G23" s="17">
         <v>0</v>
@@ -76423,22 +76424,22 @@
     </row>
     <row r="24" spans="1:8" s="17" customFormat="1" ht="28">
       <c r="A24" s="11" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G24" s="17">
         <v>0</v>
@@ -76449,42 +76450,42 @@
     </row>
     <row r="25" spans="1:8" s="17" customFormat="1" ht="30">
       <c r="A25" s="11" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="17" customFormat="1">
       <c r="A26" s="11" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G26" s="17">
         <v>0</v>
@@ -76495,22 +76496,22 @@
     </row>
     <row r="27" spans="1:8" s="17" customFormat="1">
       <c r="A27" s="11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G27" s="17">
         <v>0</v>
@@ -76521,50 +76522,50 @@
     </row>
     <row r="28" spans="1:8" s="17" customFormat="1">
       <c r="A28" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>101</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="17" customFormat="1">
       <c r="A29" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>102</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="17" customFormat="1">
       <c r="A30" s="11" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>103</v>
@@ -76573,10 +76574,10 @@
         <v>104</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G30" s="17">
         <v>1900</v>
@@ -76587,22 +76588,22 @@
     </row>
     <row r="31" spans="1:8" s="17" customFormat="1">
       <c r="A31" s="11" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G31" s="17">
         <v>-1000</v>
@@ -76613,62 +76614,62 @@
     </row>
     <row r="32" spans="1:8" s="17" customFormat="1">
       <c r="A32" s="11" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="17" customFormat="1" ht="16.25" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="17" customFormat="1">
       <c r="A34" s="11" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G34" s="17">
         <v>0</v>
@@ -76679,47 +76680,47 @@
     </row>
     <row r="35" spans="1:9" s="17" customFormat="1">
       <c r="A35" s="11" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="17" customFormat="1">
       <c r="A36" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="17" customFormat="1" ht="30">
       <c r="A37" s="11" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>109</v>
@@ -76728,70 +76729,70 @@
         <v>110</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="17" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="17" customFormat="1">
       <c r="A38" s="11" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>111</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="17" customFormat="1" ht="30">
       <c r="A39" s="11" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>111</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="17" customFormat="1">
       <c r="A40" s="11" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>115</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>783</v>
-      </c>
-      <c r="E40" s="54" t="s">
-        <v>338</v>
+        <v>781</v>
+      </c>
+      <c r="E40" s="55" t="s">
+        <v>336</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G40" s="17">
         <v>0</v>
@@ -76802,20 +76803,20 @@
     </row>
     <row r="41" spans="1:9" s="17" customFormat="1" ht="16" customHeight="1">
       <c r="A41" s="11" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>117</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>783</v>
-      </c>
-      <c r="E41" s="54"/>
+        <v>781</v>
+      </c>
+      <c r="E41" s="55"/>
       <c r="F41" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G41" s="17">
         <v>0</v>
@@ -76826,20 +76827,20 @@
     </row>
     <row r="42" spans="1:9" s="17" customFormat="1">
       <c r="A42" s="11" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>118</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>783</v>
-      </c>
-      <c r="E42" s="54"/>
+        <v>781</v>
+      </c>
+      <c r="E42" s="55"/>
       <c r="F42" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G42" s="17">
         <v>0</v>
@@ -76850,20 +76851,20 @@
     </row>
     <row r="43" spans="1:9" s="17" customFormat="1">
       <c r="A43" s="11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>119</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>783</v>
-      </c>
-      <c r="E43" s="54"/>
+        <v>781</v>
+      </c>
+      <c r="E43" s="55"/>
       <c r="F43" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G43" s="17">
         <v>0</v>
@@ -76874,42 +76875,42 @@
     </row>
     <row r="44" spans="1:9" s="17" customFormat="1" ht="39" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="17" customFormat="1">
       <c r="A45" s="11" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>120</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>783</v>
-      </c>
-      <c r="E45" s="54" t="s">
-        <v>341</v>
+        <v>781</v>
+      </c>
+      <c r="E45" s="55" t="s">
+        <v>339</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G45" s="17">
         <v>0</v>
@@ -76920,20 +76921,20 @@
     </row>
     <row r="46" spans="1:9" s="17" customFormat="1" ht="16" customHeight="1">
       <c r="A46" s="11" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>121</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>783</v>
-      </c>
-      <c r="E46" s="54"/>
+        <v>781</v>
+      </c>
+      <c r="E46" s="55"/>
       <c r="F46" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G46" s="17">
         <v>0</v>
@@ -76944,20 +76945,20 @@
     </row>
     <row r="47" spans="1:9" s="17" customFormat="1">
       <c r="A47" s="11" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>122</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>783</v>
-      </c>
-      <c r="E47" s="54"/>
+        <v>781</v>
+      </c>
+      <c r="E47" s="55"/>
       <c r="F47" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G47" s="17">
         <v>0</v>
@@ -76968,20 +76969,20 @@
     </row>
     <row r="48" spans="1:9" s="17" customFormat="1">
       <c r="A48" s="11" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>783</v>
-      </c>
-      <c r="E48" s="57"/>
+        <v>781</v>
+      </c>
+      <c r="E48" s="58"/>
       <c r="F48" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G48" s="17">
         <v>0</v>
@@ -76992,42 +76993,42 @@
     </row>
     <row r="49" spans="1:9" s="17" customFormat="1" ht="30">
       <c r="A49" s="11" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>123</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="17" customFormat="1">
       <c r="A50" s="11" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>124</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>783</v>
-      </c>
-      <c r="E50" s="54" t="s">
-        <v>343</v>
+        <v>781</v>
+      </c>
+      <c r="E50" s="55" t="s">
+        <v>341</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G50" s="17">
         <v>0</v>
@@ -77038,20 +77039,20 @@
     </row>
     <row r="51" spans="1:9" s="17" customFormat="1" ht="16" customHeight="1">
       <c r="A51" s="11" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>125</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>783</v>
-      </c>
-      <c r="E51" s="54"/>
+        <v>781</v>
+      </c>
+      <c r="E51" s="55"/>
       <c r="F51" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G51" s="17">
         <v>0</v>
@@ -77062,20 +77063,20 @@
     </row>
     <row r="52" spans="1:9" s="17" customFormat="1">
       <c r="A52" s="11" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>126</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>783</v>
-      </c>
-      <c r="E52" s="54"/>
+        <v>781</v>
+      </c>
+      <c r="E52" s="55"/>
       <c r="F52" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G52" s="17">
         <v>0</v>
@@ -77086,20 +77087,20 @@
     </row>
     <row r="53" spans="1:9" s="17" customFormat="1">
       <c r="A53" s="11" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>127</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>783</v>
-      </c>
-      <c r="E53" s="54"/>
+        <v>781</v>
+      </c>
+      <c r="E53" s="55"/>
       <c r="F53" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G53" s="17">
         <v>0</v>
@@ -77110,42 +77111,42 @@
     </row>
     <row r="54" spans="1:9" s="17" customFormat="1" ht="30">
       <c r="A54" s="11" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>128</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="17" customFormat="1">
       <c r="A55" s="11" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>783</v>
-      </c>
-      <c r="E55" s="54" t="s">
-        <v>343</v>
+        <v>781</v>
+      </c>
+      <c r="E55" s="55" t="s">
+        <v>341</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G55" s="17">
         <v>0</v>
@@ -77156,20 +77157,20 @@
     </row>
     <row r="56" spans="1:9" s="17" customFormat="1" ht="16" customHeight="1">
       <c r="A56" s="11" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>130</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>783</v>
-      </c>
-      <c r="E56" s="54"/>
+        <v>781</v>
+      </c>
+      <c r="E56" s="55"/>
       <c r="F56" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G56" s="17">
         <v>0</v>
@@ -77180,20 +77181,20 @@
     </row>
     <row r="57" spans="1:9" s="17" customFormat="1">
       <c r="A57" s="11" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>131</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>783</v>
-      </c>
-      <c r="E57" s="54"/>
+        <v>781</v>
+      </c>
+      <c r="E57" s="55"/>
       <c r="F57" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G57" s="17">
         <v>0</v>
@@ -77204,10 +77205,10 @@
     </row>
     <row r="58" spans="1:9" s="17" customFormat="1" ht="16" customHeight="1">
       <c r="A58" s="11" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>133</v>
@@ -77215,11 +77216,11 @@
       <c r="D58" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E58" s="56" t="s">
-        <v>351</v>
+      <c r="E58" s="57" t="s">
+        <v>349</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G58" s="17">
         <v>0</v>
@@ -77228,15 +77229,15 @@
         <v>100</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="17" customFormat="1">
       <c r="A59" s="11" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>135</v>
@@ -77244,9 +77245,9 @@
       <c r="D59" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E59" s="56"/>
+      <c r="E59" s="57"/>
       <c r="F59" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G59" s="17">
         <v>0</v>
@@ -77255,15 +77256,15 @@
         <v>100</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="17" customFormat="1" ht="16" customHeight="1">
       <c r="A60" s="11" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>136</v>
@@ -77271,9 +77272,9 @@
       <c r="D60" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E60" s="56"/>
+      <c r="E60" s="57"/>
       <c r="F60" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G60" s="17">
         <v>0</v>
@@ -77282,25 +77283,25 @@
         <v>100</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="17" customFormat="1">
       <c r="A61" s="11" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E61" s="56"/>
+      <c r="E61" s="57"/>
       <c r="F61" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G61" s="17">
         <v>0</v>
@@ -77309,15 +77310,15 @@
         <v>100</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="17" customFormat="1">
       <c r="A62" s="11" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>138</v>
@@ -77325,9 +77326,9 @@
       <c r="D62" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E62" s="56"/>
+      <c r="E62" s="57"/>
       <c r="F62" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G62" s="17">
         <v>0</v>
@@ -77336,15 +77337,15 @@
         <v>100</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="17" customFormat="1">
       <c r="A63" s="11" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>139</v>
@@ -77352,9 +77353,9 @@
       <c r="D63" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E63" s="56"/>
+      <c r="E63" s="57"/>
       <c r="F63" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G63" s="17">
         <v>0</v>
@@ -77363,15 +77364,15 @@
         <v>100</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="17" customFormat="1">
       <c r="A64" s="11" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>140</v>
@@ -77379,9 +77380,9 @@
       <c r="D64" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E64" s="56"/>
+      <c r="E64" s="57"/>
       <c r="F64" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G64" s="17">
         <v>0</v>
@@ -77390,15 +77391,15 @@
         <v>100</v>
       </c>
       <c r="I64" s="17" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="17" customFormat="1">
       <c r="A65" s="11" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>141</v>
@@ -77406,9 +77407,9 @@
       <c r="D65" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E65" s="56"/>
+      <c r="E65" s="57"/>
       <c r="F65" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G65" s="17">
         <v>0</v>
@@ -77417,15 +77418,15 @@
         <v>100</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="17" customFormat="1">
       <c r="A66" s="11" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>142</v>
@@ -77433,9 +77434,9 @@
       <c r="D66" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E66" s="56"/>
+      <c r="E66" s="57"/>
       <c r="F66" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G66" s="17">
         <v>0</v>
@@ -77444,15 +77445,15 @@
         <v>100</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="17" customFormat="1">
       <c r="A67" s="11" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>143</v>
@@ -77460,9 +77461,9 @@
       <c r="D67" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E67" s="56"/>
+      <c r="E67" s="57"/>
       <c r="F67" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G67" s="17">
         <v>0</v>
@@ -77471,15 +77472,15 @@
         <v>100</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="17" customFormat="1">
       <c r="A68" s="11" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>144</v>
@@ -77487,9 +77488,9 @@
       <c r="D68" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E68" s="56"/>
+      <c r="E68" s="57"/>
       <c r="F68" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G68" s="17">
         <v>0</v>
@@ -77498,15 +77499,15 @@
         <v>100</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="17" customFormat="1">
       <c r="A69" s="11" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>145</v>
@@ -77514,9 +77515,9 @@
       <c r="D69" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E69" s="56"/>
+      <c r="E69" s="57"/>
       <c r="F69" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G69" s="17">
         <v>0</v>
@@ -77525,15 +77526,15 @@
         <v>100</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="17" customFormat="1">
       <c r="A70" s="11" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>146</v>
@@ -77541,9 +77542,9 @@
       <c r="D70" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E70" s="56"/>
+      <c r="E70" s="57"/>
       <c r="F70" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G70" s="17">
         <v>0</v>
@@ -77552,15 +77553,15 @@
         <v>100</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="17" customFormat="1">
       <c r="A71" s="11" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>147</v>
@@ -77568,9 +77569,9 @@
       <c r="D71" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E71" s="56"/>
+      <c r="E71" s="57"/>
       <c r="F71" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G71" s="17">
         <v>0</v>
@@ -77579,25 +77580,25 @@
         <v>100</v>
       </c>
       <c r="I71" s="17" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="17" customFormat="1">
       <c r="A72" s="11" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E72" s="56"/>
+      <c r="E72" s="57"/>
       <c r="F72" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G72" s="17">
         <v>0</v>
@@ -77606,7 +77607,7 @@
         <v>100</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="3" customFormat="1">
@@ -78464,8 +78465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="111" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -78481,13 +78482,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D1" s="36" t="s">
         <v>19</v>
@@ -78496,39 +78497,39 @@
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>820</v>
-      </c>
       <c r="H1" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>819</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="45">
       <c r="A2" s="24" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -78536,280 +78537,280 @@
         <v>21</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="35" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="27" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="27" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>763</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="27" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C8" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I8" s="45" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C9" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C10" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="E10" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C11" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E11" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C12" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E12" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I12" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C13" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E13" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C14" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E14" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I14" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -78820,22 +78821,22 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C16" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -78846,22 +78847,22 @@
     </row>
     <row r="17" spans="1:8" ht="97.25" customHeight="1">
       <c r="A17" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C17" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -78872,22 +78873,22 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G18">
         <v>-160</v>
@@ -78898,82 +78899,82 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>696</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>815</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>698</v>
       </c>
-      <c r="B19" s="42" t="s">
-        <v>817</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>700</v>
-      </c>
       <c r="D19" s="38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>104</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G22">
         <v>1900</v>
@@ -78984,22 +78985,22 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G23">
         <v>-1000</v>
@@ -79010,62 +79011,62 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F26" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -79076,42 +79077,42 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F27" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F28" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/ISRaD_Template_Info.xlsx
+++ b/inst/extdata/ISRaD_Template_Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greymonroe/github/ISRaD/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C04F07F-EDF1-484F-BE3B-1CF572F45803}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C18CD9-9099-384C-9861-EF508A058593}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="740" windowWidth="30600" windowHeight="18860" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="460" windowWidth="30600" windowHeight="18860" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general info" sheetId="6" r:id="rId1"/>
@@ -6228,8 +6228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I280"/>
   <sheetViews>
-    <sheetView topLeftCell="E56" zoomScale="111" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="111" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -7309,7 +7309,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:9">
       <c r="A49" s="11" t="s">
         <v>542</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:9">
       <c r="A50" s="11" t="s">
         <v>543</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:9">
       <c r="A51" s="11" t="s">
         <v>544</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:9">
       <c r="A52" s="11" t="s">
         <v>545</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:9">
       <c r="A53" s="11" t="s">
         <v>546</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:9">
       <c r="A54" s="11" t="s">
         <v>787</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:9">
       <c r="A55" s="11" t="s">
         <v>547</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="30">
+    <row r="56" spans="1:9" ht="30">
       <c r="A56" s="11" t="s">
         <v>548</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="30">
+    <row r="57" spans="1:9" ht="30">
       <c r="A57" s="11" t="s">
         <v>786</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="98.5" customHeight="1">
+    <row r="58" spans="1:9" ht="98.5" customHeight="1">
       <c r="A58" s="46" t="s">
         <v>549</v>
       </c>
@@ -7530,11 +7530,11 @@
       <c r="F58" s="53" t="s">
         <v>822</v>
       </c>
-      <c r="H58" s="11" t="s">
+      <c r="I58" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:9">
       <c r="A59" s="11" t="s">
         <v>550</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="30">
+    <row r="60" spans="1:9" ht="30">
       <c r="A60" s="11" t="s">
         <v>551</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:9">
       <c r="A61" s="11" t="s">
         <v>809</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:9">
       <c r="A62" s="11" t="s">
         <v>810</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:9">
       <c r="A63" s="11" t="s">
         <v>552</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:9">
       <c r="A64" s="11" t="s">
         <v>553</v>
       </c>
@@ -78465,8 +78465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="111" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>

--- a/inst/extdata/ISRaD_Template_Info.xlsx
+++ b/inst/extdata/ISRaD_Template_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greymonroe/github/ISRaD/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C18CD9-9099-384C-9861-EF508A058593}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06300E7A-0B38-1244-B28F-470429FC4B48}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="460" windowWidth="30600" windowHeight="18860" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9360" yWindow="480" windowWidth="30600" windowHeight="18860" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general info" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="858">
   <si>
     <t>curator_name</t>
   </si>
@@ -673,9 +673,6 @@
   </si>
   <si>
     <t xml:space="preserve">Percent by weight of nitrogen (organic and inorganic) in an oven- dried sample (the laboratory analytical concentration). </t>
-  </si>
-  <si>
-    <t>must match other levels</t>
   </si>
   <si>
     <t>Corresponding author of dataset</t>
@@ -2657,6 +2654,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>Inf</t>
   </si>
 </sst>
 </file>
@@ -3882,74 +3882,74 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="64">
       <c r="A2" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="48">
       <c r="A3" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>311</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32">
       <c r="A4" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>305</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="48">
       <c r="A5" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>263</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="160">
       <c r="A6" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="80">
       <c r="A7" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="64">
       <c r="A8" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="80">
       <c r="A9" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4012,13 +4012,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -4027,44 +4027,44 @@
         <v>20</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30">
       <c r="A2" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
       <c r="A3" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="B3" t="s">
+        <v>813</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="B3" t="s">
-        <v>814</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>372</v>
-      </c>
       <c r="D3" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F3" s="12"/>
     </row>
@@ -4073,16 +4073,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F4" s="12"/>
     </row>
@@ -4091,7 +4091,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>3</v>
@@ -4100,7 +4100,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F5" s="12"/>
     </row>
@@ -4109,7 +4109,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>6</v>
@@ -4118,7 +4118,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F6" s="12"/>
     </row>
@@ -4127,7 +4127,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>9</v>
@@ -4136,7 +4136,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F7" s="12"/>
     </row>
@@ -4145,16 +4145,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F8" s="12"/>
     </row>
@@ -4163,16 +4163,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F9" s="12"/>
     </row>
@@ -4181,25 +4181,25 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>17</v>
@@ -4208,43 +4208,43 @@
         <v>18</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="30">
       <c r="A12" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" t="s">
+        <v>814</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="B12" t="s">
-        <v>815</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>218</v>
-      </c>
       <c r="E12" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="30">
       <c r="A13" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="B13" t="s">
+        <v>814</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="B13" t="s">
-        <v>815</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="25" t="s">
         <v>376</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -4262,8 +4262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -4278,13 +4278,13 @@
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>19</v>
@@ -4293,41 +4293,41 @@
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>818</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4335,32 +4335,32 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>821</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>822</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="26" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>23</v>
@@ -4369,10 +4369,10 @@
         <v>24</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G4" s="11">
         <v>-180</v>
@@ -4383,10 +4383,10 @@
     </row>
     <row r="5" spans="1:9" ht="23" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>25</v>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="E5" s="55"/>
       <c r="F5" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G5" s="11">
         <v>-180</v>
@@ -4407,10 +4407,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>26</v>
@@ -4419,10 +4419,10 @@
         <v>27</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -4432,10 +4432,10 @@
     </row>
     <row r="7" spans="1:9" ht="30">
       <c r="A7" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>30</v>
@@ -4447,7 +4447,7 @@
         <v>168</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G7" s="11">
         <v>413</v>
@@ -4461,19 +4461,19 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>167</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -4496,8 +4496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="E15" zoomScale="107" zoomScaleNormal="70" zoomScalePageLayoutView="119" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="B1" zoomScale="107" zoomScaleNormal="70" zoomScalePageLayoutView="119" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -4514,13 +4514,13 @@
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>19</v>
@@ -4529,39 +4529,39 @@
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>818</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4569,108 +4569,108 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4" t="s">
+        <v>814</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="B4" t="s">
-        <v>815</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>400</v>
-      </c>
       <c r="F4" s="46" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30">
       <c r="A5" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G7">
         <v>-180</v>
@@ -4681,20 +4681,20 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="55"/>
       <c r="F8" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G8">
         <v>-180</v>
@@ -4705,115 +4705,115 @@
     </row>
     <row r="9" spans="1:9" ht="30">
       <c r="A9" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>287</v>
-      </c>
       <c r="F9" s="46" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I9" s="46" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B10" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>289</v>
-      </c>
       <c r="F10" s="46" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B12" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>276</v>
-      </c>
       <c r="F12" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" s="46" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I12" s="46"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B13" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G13">
         <v>-60</v>
@@ -4824,22 +4824,22 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -4850,81 +4850,81 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B15" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>58</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1">
       <c r="A17" s="13" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B17" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I17" s="47" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1">
       <c r="A18" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B18" t="s">
+        <v>814</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="B18" t="s">
-        <v>815</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>407</v>
-      </c>
       <c r="F18" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -4932,22 +4932,22 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G19">
         <v>-60</v>
@@ -4958,22 +4958,22 @@
     </row>
     <row r="20" spans="1:9" ht="30">
       <c r="A20" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B20" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -4984,10 +4984,10 @@
     </row>
     <row r="21" spans="1:9" ht="46.25" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B21" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>47</v>
@@ -4996,10 +4996,10 @@
         <v>48</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>177</v>
@@ -5007,10 +5007,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B22" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>55</v>
@@ -5019,18 +5019,18 @@
         <v>46</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B23" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>59</v>
@@ -5042,7 +5042,7 @@
         <v>190</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -5050,10 +5050,10 @@
     </row>
     <row r="24" spans="1:9" ht="30">
       <c r="A24" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B24" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>42</v>
@@ -5065,21 +5065,21 @@
         <v>173</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30">
       <c r="A25" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B25" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>60</v>
@@ -5091,27 +5091,27 @@
         <v>189</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="60">
       <c r="A26" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B26" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>44</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>179</v>
@@ -5119,22 +5119,22 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>180</v>
@@ -5142,30 +5142,30 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B28" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C28" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>223</v>
-      </c>
       <c r="E28" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="45">
       <c r="A29" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B29" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>56</v>
@@ -5177,7 +5177,7 @@
         <v>191</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I29" s="11" t="s">
         <v>181</v>
@@ -5185,10 +5185,10 @@
     </row>
     <row r="30" spans="1:9" ht="30">
       <c r="A30" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B30" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>34</v>
@@ -5200,7 +5200,7 @@
         <v>170</v>
       </c>
       <c r="F30" s="46" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>175</v>
@@ -5208,10 +5208,10 @@
     </row>
     <row r="31" spans="1:9" ht="30">
       <c r="A31" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B31" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>32</v>
@@ -5223,7 +5223,7 @@
         <v>171</v>
       </c>
       <c r="F31" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -5234,10 +5234,10 @@
     </row>
     <row r="32" spans="1:9" ht="30">
       <c r="A32" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>36</v>
@@ -5249,7 +5249,7 @@
         <v>169</v>
       </c>
       <c r="F32" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -5261,10 +5261,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>38</v>
@@ -5273,10 +5273,10 @@
         <v>39</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I33" s="14" t="s">
         <v>176</v>
@@ -5284,10 +5284,10 @@
     </row>
     <row r="34" spans="1:9" ht="45">
       <c r="A34" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B34" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>40</v>
@@ -5296,10 +5296,10 @@
         <v>41</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I34" s="14" t="s">
         <v>178</v>
@@ -5307,10 +5307,10 @@
     </row>
     <row r="35" spans="1:9" ht="27.5" customHeight="1">
       <c r="A35" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B35" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>61</v>
@@ -5322,21 +5322,21 @@
         <v>188</v>
       </c>
       <c r="F35" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" s="46" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30">
       <c r="A36" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B36" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>62</v>
@@ -5348,21 +5348,21 @@
         <v>187</v>
       </c>
       <c r="F36" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G36" s="46">
         <v>0</v>
       </c>
       <c r="H36" s="46" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="30">
       <c r="A37" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B37" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>63</v>
@@ -5374,13 +5374,13 @@
         <v>186</v>
       </c>
       <c r="F37" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" s="46" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -5407,8 +5407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="117" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="E12" zoomScale="117" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -5424,13 +5424,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>19</v>
@@ -5439,39 +5439,39 @@
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>818</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5479,88 +5479,88 @@
         <v>21</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4" t="s">
+        <v>814</v>
+      </c>
+      <c r="C4" t="s">
         <v>398</v>
       </c>
-      <c r="B4" t="s">
-        <v>815</v>
-      </c>
-      <c r="C4" t="s">
-        <v>399</v>
-      </c>
       <c r="D4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28" customHeight="1">
       <c r="A6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G6">
         <v>-180</v>
@@ -5571,20 +5571,20 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="56"/>
       <c r="F7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G7">
         <v>-180</v>
@@ -5595,176 +5595,176 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C9" t="s">
+        <v>460</v>
+      </c>
+      <c r="E9" t="s">
         <v>461</v>
       </c>
-      <c r="E9" t="s">
-        <v>462</v>
-      </c>
       <c r="F9" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I9" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B10" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C10" t="s">
+        <v>462</v>
+      </c>
+      <c r="E10" t="s">
         <v>463</v>
       </c>
-      <c r="E10" t="s">
-        <v>464</v>
-      </c>
       <c r="F10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C11" t="s">
+        <v>464</v>
+      </c>
+      <c r="E11" t="s">
         <v>465</v>
       </c>
-      <c r="E11" t="s">
-        <v>466</v>
-      </c>
       <c r="F11" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B12" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C12" t="s">
+        <v>466</v>
+      </c>
+      <c r="E12" t="s">
         <v>467</v>
       </c>
-      <c r="E12" t="s">
-        <v>468</v>
-      </c>
       <c r="F12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I12" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B13" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C13" t="s">
+        <v>468</v>
+      </c>
+      <c r="E13" t="s">
         <v>469</v>
       </c>
-      <c r="E13" t="s">
-        <v>470</v>
-      </c>
       <c r="F13" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I13" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C14" t="s">
+        <v>470</v>
+      </c>
+      <c r="E14" t="s">
         <v>471</v>
       </c>
-      <c r="E14" t="s">
-        <v>472</v>
-      </c>
       <c r="F14" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B15" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C15" t="s">
+        <v>472</v>
+      </c>
+      <c r="E15" t="s">
         <v>473</v>
       </c>
-      <c r="E15" t="s">
-        <v>474</v>
-      </c>
       <c r="F15" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I15" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B16" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C16" t="s">
+        <v>474</v>
+      </c>
+      <c r="D16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" t="s">
         <v>475</v>
       </c>
-      <c r="D16" t="s">
-        <v>219</v>
-      </c>
-      <c r="E16" t="s">
-        <v>476</v>
-      </c>
       <c r="F16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -5775,88 +5775,88 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
+        <v>487</v>
+      </c>
+      <c r="B17" t="s">
+        <v>814</v>
+      </c>
+      <c r="C17" t="s">
         <v>488</v>
       </c>
-      <c r="B17" t="s">
-        <v>815</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>489</v>
       </c>
-      <c r="E17" t="s">
-        <v>490</v>
-      </c>
       <c r="F17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F18" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I18" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C19" t="s">
+        <v>477</v>
+      </c>
+      <c r="D19" t="s">
+        <v>455</v>
+      </c>
+      <c r="E19" t="s">
         <v>478</v>
       </c>
-      <c r="D19" t="s">
-        <v>456</v>
-      </c>
-      <c r="E19" t="s">
-        <v>479</v>
-      </c>
       <c r="F19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I19" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B20" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G20">
         <v>-60</v>
@@ -5867,22 +5867,22 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B21" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D21" t="s">
         <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -5893,22 +5893,22 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B22" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D22" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -5919,22 +5919,22 @@
     </row>
     <row r="23" spans="1:9" ht="115.25" customHeight="1">
       <c r="A23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B23" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -5945,42 +5945,42 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B24" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C24" t="s">
+        <v>485</v>
+      </c>
+      <c r="D24" t="s">
+        <v>218</v>
+      </c>
+      <c r="E24" t="s">
         <v>486</v>
       </c>
-      <c r="D24" t="s">
-        <v>219</v>
-      </c>
-      <c r="E24" t="s">
-        <v>487</v>
-      </c>
       <c r="F24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B25" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C25" t="s">
+        <v>490</v>
+      </c>
+      <c r="D25" t="s">
+        <v>456</v>
+      </c>
+      <c r="E25" t="s">
         <v>491</v>
       </c>
-      <c r="D25" t="s">
-        <v>457</v>
-      </c>
-      <c r="E25" t="s">
-        <v>492</v>
-      </c>
       <c r="F25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G25">
         <v>-160</v>
@@ -5991,108 +5991,108 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B26" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C26" t="s">
+        <v>492</v>
+      </c>
+      <c r="D26" t="s">
+        <v>456</v>
+      </c>
+      <c r="E26" t="s">
         <v>493</v>
       </c>
-      <c r="D26" t="s">
-        <v>457</v>
-      </c>
-      <c r="E26" t="s">
-        <v>494</v>
-      </c>
       <c r="F26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C27" t="s">
+        <v>495</v>
+      </c>
+      <c r="D27" t="s">
+        <v>299</v>
+      </c>
+      <c r="E27" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="D27" t="s">
-        <v>300</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>497</v>
-      </c>
       <c r="F27" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B28" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E28" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F28" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B29" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C29" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D29" t="s">
         <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G29" s="47">
         <v>1900</v>
       </c>
       <c r="H29" s="47" t="s">
-        <v>823</v>
+        <v>857</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B30" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C30" t="s">
+        <v>500</v>
+      </c>
+      <c r="D30" t="s">
+        <v>456</v>
+      </c>
+      <c r="E30" t="s">
         <v>501</v>
       </c>
-      <c r="D30" t="s">
-        <v>457</v>
-      </c>
-      <c r="E30" t="s">
-        <v>502</v>
-      </c>
       <c r="F30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G30">
         <v>-1000</v>
@@ -6103,62 +6103,62 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B31" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C31" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D31" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E31" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C32" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D32" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C33" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D33" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E33" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -6169,42 +6169,42 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B34" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C34" t="s">
+        <v>507</v>
+      </c>
+      <c r="D34" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" t="s">
         <v>508</v>
       </c>
-      <c r="D34" t="s">
-        <v>219</v>
-      </c>
-      <c r="E34" t="s">
-        <v>509</v>
-      </c>
       <c r="F34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B35" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C35" t="s">
+        <v>510</v>
+      </c>
+      <c r="D35" t="s">
         <v>511</v>
       </c>
-      <c r="D35" t="s">
-        <v>512</v>
-      </c>
       <c r="E35" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -6228,8 +6228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="111" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView zoomScale="111" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -6247,13 +6247,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>19</v>
@@ -6262,171 +6262,182 @@
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>818</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="2" spans="1:9" customFormat="1">
       <c r="A2" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G2" s="42"/>
       <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="I2" s="12" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>822</v>
+        <v>821</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>822</v>
+        <v>821</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>822</v>
+        <v>821</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B6" t="s">
+        <v>813</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="B6" t="s">
-        <v>814</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="49" t="s">
+        <v>848</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="D6" s="49" t="s">
-        <v>849</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>594</v>
-      </c>
       <c r="F6" s="44" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="B7" t="s">
+        <v>813</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>595</v>
-      </c>
-      <c r="B7" t="s">
-        <v>814</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>596</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="B8" t="s">
+        <v>813</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="B8" t="s">
-        <v>814</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>598</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>65</v>
@@ -6435,18 +6446,18 @@
         <v>43</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B10" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>66</v>
@@ -6455,79 +6466,79 @@
         <v>43</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30">
       <c r="A11" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>185</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>682</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>683</v>
-      </c>
       <c r="F12" s="42" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I12" s="54" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>68</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="42" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>69</v>
@@ -6537,15 +6548,15 @@
         <v>192</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>70</v>
@@ -6557,18 +6568,18 @@
         <v>193</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I15" s="54" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>72</v>
@@ -6580,15 +6591,15 @@
         <v>194</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>74</v>
@@ -6600,15 +6611,15 @@
         <v>195</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>75</v>
@@ -6618,15 +6629,15 @@
         <v>196</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30">
       <c r="A19" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>78</v>
@@ -6638,7 +6649,7 @@
         <v>199</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G19" s="42">
         <v>0</v>
@@ -6649,10 +6660,10 @@
     </row>
     <row r="20" spans="1:8" ht="30">
       <c r="A20" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>79</v>
@@ -6664,7 +6675,7 @@
         <v>200</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G20" s="42">
         <v>0</v>
@@ -6675,10 +6686,10 @@
     </row>
     <row r="21" spans="1:8" ht="30">
       <c r="A21" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>80</v>
@@ -6690,7 +6701,7 @@
         <v>201</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G21" s="42">
         <v>0</v>
@@ -6701,10 +6712,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>81</v>
@@ -6713,10 +6724,10 @@
         <v>37</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G22" s="42">
         <v>0</v>
@@ -6727,36 +6738,36 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>82</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G23" s="42">
         <v>0</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>83</v>
@@ -6765,44 +6776,44 @@
         <v>84</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="27.5" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>85</v>
       </c>
       <c r="D25" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>326</v>
-      </c>
       <c r="F25" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G25" s="42">
         <v>0</v>
       </c>
       <c r="H25" s="42" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>76</v>
@@ -6812,7 +6823,7 @@
         <v>197</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G26" s="42">
         <v>0</v>
@@ -6823,10 +6834,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>77</v>
@@ -6836,7 +6847,7 @@
         <v>198</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G27" s="42">
         <v>0</v>
@@ -6847,20 +6858,20 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G28" s="42">
         <v>0</v>
@@ -6871,30 +6882,30 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C29" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>228</v>
-      </c>
       <c r="E29" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>86</v>
@@ -6906,15 +6917,15 @@
         <v>202</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>88</v>
@@ -6923,112 +6934,112 @@
         <v>89</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F31" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>89</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F32" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>89</v>
       </c>
       <c r="E33" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F33" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>89</v>
       </c>
       <c r="E34" s="55"/>
       <c r="F34" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>89</v>
       </c>
       <c r="E35" s="55"/>
       <c r="F35" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>89</v>
       </c>
       <c r="E36" s="55"/>
       <c r="F36" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>90</v>
@@ -7038,15 +7049,15 @@
       </c>
       <c r="E37" s="55"/>
       <c r="F37" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>91</v>
@@ -7055,10 +7066,10 @@
         <v>37</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F38" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G38" s="42">
         <v>0</v>
@@ -7069,22 +7080,22 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F39" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G39" s="42">
         <v>0</v>
@@ -7095,22 +7106,22 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F40" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G40" s="42">
         <v>0</v>
@@ -7121,22 +7132,22 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F41" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G41" s="42">
         <v>0</v>
@@ -7147,10 +7158,10 @@
     </row>
     <row r="42" spans="1:8" ht="30">
       <c r="A42" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>92</v>
@@ -7162,15 +7173,15 @@
         <v>172</v>
       </c>
       <c r="F42" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="30">
       <c r="A43" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>93</v>
@@ -7182,15 +7193,15 @@
         <v>205</v>
       </c>
       <c r="F43" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>94</v>
@@ -7202,7 +7213,7 @@
         <v>203</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G44" s="42">
         <v>0</v>
@@ -7213,10 +7224,10 @@
     </row>
     <row r="45" spans="1:8" ht="30">
       <c r="A45" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>95</v>
@@ -7228,15 +7239,15 @@
         <v>204</v>
       </c>
       <c r="F45" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30">
       <c r="A46" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>97</v>
@@ -7248,7 +7259,7 @@
         <v>206</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G46" s="42">
         <v>0</v>
@@ -7259,22 +7270,22 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>207</v>
       </c>
       <c r="F47" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G47" s="42">
         <v>0</v>
@@ -7285,22 +7296,22 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G48" s="42">
         <v>0</v>
@@ -7311,10 +7322,10 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>101</v>
@@ -7323,36 +7334,36 @@
         <v>100</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F49" s="42" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>102</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F50" s="42" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>103</v>
@@ -7361,36 +7372,36 @@
         <v>104</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F51" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G51" s="42">
         <v>1900</v>
       </c>
       <c r="H51" s="52" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>105</v>
       </c>
       <c r="D52" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G52" s="48">
         <v>-1000</v>
@@ -7401,22 +7412,22 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D53" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G53" s="48">
         <v>-1000</v>
@@ -7427,42 +7438,42 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>106</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F54" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>107</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F55" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G55" s="48">
         <v>0</v>
@@ -7473,50 +7484,50 @@
     </row>
     <row r="56" spans="1:9" ht="30">
       <c r="A56" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F56" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="30">
       <c r="A57" s="11" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>108</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F57" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="98.5" customHeight="1">
       <c r="A58" s="46" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>109</v>
@@ -7525,10 +7536,10 @@
         <v>110</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F58" s="53" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I58" s="11" t="s">
         <v>182</v>
@@ -7536,101 +7547,101 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>111</v>
       </c>
       <c r="F59" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="30">
       <c r="A60" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>111</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>112</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F61" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>113</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F62" s="42" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>114</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F63" s="42" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>115</v>
@@ -7639,10 +7650,10 @@
         <v>116</v>
       </c>
       <c r="E64" s="55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F64" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G64" s="42">
         <v>0</v>
@@ -7653,10 +7664,10 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>117</v>
@@ -7666,7 +7677,7 @@
       </c>
       <c r="E65" s="55"/>
       <c r="F65" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G65" s="42">
         <v>0</v>
@@ -7677,10 +7688,10 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>118</v>
@@ -7690,7 +7701,7 @@
       </c>
       <c r="E66" s="55"/>
       <c r="F66" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G66" s="42">
         <v>0</v>
@@ -7701,10 +7712,10 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>119</v>
@@ -7714,7 +7725,7 @@
       </c>
       <c r="E67" s="55"/>
       <c r="F67" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G67" s="42">
         <v>0</v>
@@ -7725,30 +7736,30 @@
     </row>
     <row r="68" spans="1:8" ht="30">
       <c r="A68" s="11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F68" s="42" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>120</v>
@@ -7757,10 +7768,10 @@
         <v>116</v>
       </c>
       <c r="E69" s="55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F69" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G69" s="42">
         <v>0</v>
@@ -7771,10 +7782,10 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>121</v>
@@ -7784,7 +7795,7 @@
       </c>
       <c r="E70" s="55"/>
       <c r="F70" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G70" s="42">
         <v>0</v>
@@ -7795,10 +7806,10 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>122</v>
@@ -7808,7 +7819,7 @@
       </c>
       <c r="E71" s="55"/>
       <c r="F71" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G71" s="42">
         <v>0</v>
@@ -7819,20 +7830,20 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>116</v>
       </c>
       <c r="E72" s="55"/>
       <c r="F72" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G72" s="42">
         <v>0</v>
@@ -7843,30 +7854,30 @@
     </row>
     <row r="73" spans="1:8" ht="30">
       <c r="A73" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>123</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F73" s="42" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>124</v>
@@ -7875,10 +7886,10 @@
         <v>116</v>
       </c>
       <c r="E74" s="55" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F74" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G74" s="42">
         <v>0</v>
@@ -7889,10 +7900,10 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>125</v>
@@ -7902,7 +7913,7 @@
       </c>
       <c r="E75" s="55"/>
       <c r="F75" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G75" s="42">
         <v>0</v>
@@ -7913,10 +7924,10 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>126</v>
@@ -7926,7 +7937,7 @@
       </c>
       <c r="E76" s="55"/>
       <c r="F76" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G76" s="42">
         <v>0</v>
@@ -7937,10 +7948,10 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>127</v>
@@ -7950,7 +7961,7 @@
       </c>
       <c r="E77" s="55"/>
       <c r="F77" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G77" s="42">
         <v>0</v>
@@ -7961,22 +7972,22 @@
     </row>
     <row r="78" spans="1:8" ht="30">
       <c r="A78" s="11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>128</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F78" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G78" s="42">
         <v>0</v>
@@ -7987,10 +7998,10 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>129</v>
@@ -7999,10 +8010,10 @@
         <v>116</v>
       </c>
       <c r="E79" s="55" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F79" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G79" s="42">
         <v>0</v>
@@ -8013,10 +8024,10 @@
     </row>
     <row r="80" spans="1:8" ht="30" customHeight="1">
       <c r="A80" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>130</v>
@@ -8026,7 +8037,7 @@
       </c>
       <c r="E80" s="55"/>
       <c r="F80" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G80" s="42">
         <v>0</v>
@@ -8037,10 +8048,10 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>131</v>
@@ -8050,7 +8061,7 @@
       </c>
       <c r="E81" s="55"/>
       <c r="F81" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G81" s="42">
         <v>0</v>
@@ -8061,22 +8072,22 @@
     </row>
     <row r="82" spans="1:9" ht="30">
       <c r="A82" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>132</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F82" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G82" s="42">
         <v>0</v>
@@ -8087,10 +8098,10 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>133</v>
@@ -8099,10 +8110,10 @@
         <v>134</v>
       </c>
       <c r="E83" s="57" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F83" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G83" s="42">
         <v>0</v>
@@ -8111,15 +8122,15 @@
         <v>100</v>
       </c>
       <c r="I83" s="42" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>135</v>
@@ -8129,7 +8140,7 @@
       </c>
       <c r="E84" s="57"/>
       <c r="F84" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G84" s="42">
         <v>0</v>
@@ -8138,15 +8149,15 @@
         <v>100</v>
       </c>
       <c r="I84" s="42" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>136</v>
@@ -8156,7 +8167,7 @@
       </c>
       <c r="E85" s="57"/>
       <c r="F85" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G85" s="42">
         <v>0</v>
@@ -8165,15 +8176,15 @@
         <v>100</v>
       </c>
       <c r="I85" s="42" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>137</v>
@@ -8183,7 +8194,7 @@
       </c>
       <c r="E86" s="57"/>
       <c r="F86" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G86" s="42">
         <v>0</v>
@@ -8192,15 +8203,15 @@
         <v>100</v>
       </c>
       <c r="I86" s="42" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>138</v>
@@ -8210,7 +8221,7 @@
       </c>
       <c r="E87" s="57"/>
       <c r="F87" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G87" s="42">
         <v>0</v>
@@ -8219,15 +8230,15 @@
         <v>100</v>
       </c>
       <c r="I87" s="42" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>139</v>
@@ -8237,7 +8248,7 @@
       </c>
       <c r="E88" s="57"/>
       <c r="F88" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G88" s="42">
         <v>0</v>
@@ -8246,15 +8257,15 @@
         <v>100</v>
       </c>
       <c r="I88" s="42" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>140</v>
@@ -8264,7 +8275,7 @@
       </c>
       <c r="E89" s="57"/>
       <c r="F89" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G89" s="42">
         <v>0</v>
@@ -8273,15 +8284,15 @@
         <v>100</v>
       </c>
       <c r="I89" s="42" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>141</v>
@@ -8291,7 +8302,7 @@
       </c>
       <c r="E90" s="57"/>
       <c r="F90" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G90" s="42">
         <v>0</v>
@@ -8300,15 +8311,15 @@
         <v>100</v>
       </c>
       <c r="I90" s="42" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>142</v>
@@ -8318,7 +8329,7 @@
       </c>
       <c r="E91" s="57"/>
       <c r="F91" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G91" s="42">
         <v>0</v>
@@ -8327,15 +8338,15 @@
         <v>100</v>
       </c>
       <c r="I91" s="42" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>143</v>
@@ -8345,7 +8356,7 @@
       </c>
       <c r="E92" s="57"/>
       <c r="F92" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G92" s="42">
         <v>0</v>
@@ -8354,15 +8365,15 @@
         <v>100</v>
       </c>
       <c r="I92" s="42" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>144</v>
@@ -8372,7 +8383,7 @@
       </c>
       <c r="E93" s="57"/>
       <c r="F93" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G93" s="42">
         <v>0</v>
@@ -8381,15 +8392,15 @@
         <v>100</v>
       </c>
       <c r="I93" s="42" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="30">
       <c r="A94" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>145</v>
@@ -8399,7 +8410,7 @@
       </c>
       <c r="E94" s="57"/>
       <c r="F94" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G94" s="42">
         <v>0</v>
@@ -8408,15 +8419,15 @@
         <v>100</v>
       </c>
       <c r="I94" s="42" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>146</v>
@@ -8426,7 +8437,7 @@
       </c>
       <c r="E95" s="57"/>
       <c r="F95" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G95" s="42">
         <v>0</v>
@@ -8435,15 +8446,15 @@
         <v>100</v>
       </c>
       <c r="I95" s="42" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>147</v>
@@ -8453,7 +8464,7 @@
       </c>
       <c r="E96" s="57"/>
       <c r="F96" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G96" s="42">
         <v>0</v>
@@ -8462,25 +8473,25 @@
         <v>100</v>
       </c>
       <c r="I96" s="42" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>134</v>
       </c>
       <c r="E97" s="57"/>
       <c r="F97" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G97" s="42">
         <v>0</v>
@@ -8489,25 +8500,25 @@
         <v>100</v>
       </c>
       <c r="I97" s="42" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>134</v>
       </c>
       <c r="E98" s="57"/>
       <c r="F98" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G98" s="42">
         <v>0</v>
@@ -8516,7 +8527,7 @@
         <v>100</v>
       </c>
       <c r="I98" s="42" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -9810,7 +9821,7 @@
   <dimension ref="A1:I16385"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="200" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -9828,13 +9839,13 @@
   <sheetData>
     <row r="1" spans="1:9" s="31" customFormat="1">
       <c r="A1" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>19</v>
@@ -9843,39 +9854,39 @@
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>818</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="45">
       <c r="A2" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9883,229 +9894,229 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>822</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>212</v>
+        <v>821</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="35" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>822</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>212</v>
+        <v>821</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="35" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C5" s="33" t="s">
+        <v>627</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>848</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="D5" s="49" t="s">
-        <v>849</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>629</v>
-      </c>
       <c r="F5" s="49" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G6" s="28">
         <v>0</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="32" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="31" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D8" s="33" t="s">
+        <v>653</v>
+      </c>
+      <c r="E8" s="33" t="s">
         <v>654</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>655</v>
-      </c>
       <c r="F8" s="49" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I8" s="49" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="31" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D9" s="33" t="s">
+        <v>655</v>
+      </c>
+      <c r="E9" s="33" t="s">
         <v>656</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>657</v>
-      </c>
       <c r="F9" s="49" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="31" t="s">
+        <v>657</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>814</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>658</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>815</v>
-      </c>
-      <c r="C10" s="33" t="s">
+      <c r="D10" s="33" t="s">
+        <v>660</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>659</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>661</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>660</v>
-      </c>
       <c r="F10" s="49" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="31" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C11" s="33" t="s">
+        <v>634</v>
+      </c>
+      <c r="D11" s="28" t="s">
         <v>635</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>636</v>
-      </c>
       <c r="E11" s="50" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G11" s="28">
         <v>0</v>
       </c>
       <c r="H11" s="49" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="31" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G12" s="28">
         <v>-60</v>
@@ -10116,22 +10127,22 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="31" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D13" t="s">
         <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G13" s="28">
         <v>0</v>
@@ -10142,22 +10153,22 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="31" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G14" s="28">
         <v>0</v>
@@ -10168,19 +10179,19 @@
     </row>
     <row r="15" spans="1:9" ht="81.5" customHeight="1">
       <c r="A15" s="31" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G15" s="28">
         <v>0</v>
@@ -10188,22 +10199,22 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="31" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G16" s="28">
         <v>-160</v>
@@ -10214,82 +10225,82 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="31" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="31" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="31" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="31" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>104</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G20" s="28">
         <v>1990</v>
@@ -10300,22 +10311,22 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="31" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G21" s="28">
         <v>-1000</v>
@@ -10326,62 +10337,62 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="31" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="31" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="31" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G24" s="28">
         <v>0</v>
@@ -10392,42 +10403,42 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="31" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="31" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F26" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -75881,8 +75892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I349"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="114" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="D8" zoomScale="114" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -75900,13 +75911,13 @@
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>19</v>
@@ -75915,39 +75926,39 @@
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>818</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="30">
       <c r="A2" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="17" customFormat="1">
@@ -75955,128 +75966,128 @@
         <v>21</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>822</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>212</v>
+        <v>821</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="17" customFormat="1">
       <c r="A4" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>822</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>212</v>
+        <v>821</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="17" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>822</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>212</v>
+        <v>821</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="17" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>148</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="17" customFormat="1" ht="30">
       <c r="A7" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>813</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>814</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>720</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>766</v>
-      </c>
       <c r="F7" s="45" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="17" customFormat="1" ht="30">
       <c r="A8" s="11" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>150</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>209</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>184</v>
@@ -76084,22 +76095,22 @@
     </row>
     <row r="9" spans="1:9" s="17" customFormat="1" ht="32.5" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>149</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>208</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>183</v>
@@ -76107,110 +76118,110 @@
     </row>
     <row r="10" spans="1:9" s="17" customFormat="1">
       <c r="A10" s="10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>151</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>210</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="17" customFormat="1">
       <c r="A11" s="10" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>246</v>
-      </c>
       <c r="E11" s="11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="17" customFormat="1">
       <c r="A12" s="10" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="17" customFormat="1">
       <c r="A13" s="10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="17" customFormat="1">
       <c r="A14" s="39" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>152</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="17" customFormat="1">
       <c r="A15" s="11" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>153</v>
@@ -76219,41 +76230,41 @@
         <v>53</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="17" customFormat="1">
       <c r="A16" s="11" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>154</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="17" customFormat="1">
       <c r="A17" s="11" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>155</v>
@@ -76262,10 +76273,10 @@
         <v>37</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G17" s="17">
         <v>0</v>
@@ -76276,42 +76287,42 @@
     </row>
     <row r="18" spans="1:8" s="17" customFormat="1">
       <c r="A18" s="11" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="17" customFormat="1">
       <c r="A19" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>779</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>780</v>
-      </c>
       <c r="E19" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G19" s="42">
         <v>0</v>
@@ -76320,22 +76331,22 @@
     </row>
     <row r="20" spans="1:8" s="17" customFormat="1">
       <c r="A20" s="11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G20" s="17">
         <v>0</v>
@@ -76346,10 +76357,10 @@
     </row>
     <row r="21" spans="1:8" s="17" customFormat="1">
       <c r="A21" s="11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>156</v>
@@ -76358,10 +76369,10 @@
         <v>37</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G21" s="17">
         <v>0</v>
@@ -76372,10 +76383,10 @@
     </row>
     <row r="22" spans="1:8" s="17" customFormat="1">
       <c r="A22" s="11" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>157</v>
@@ -76384,10 +76395,10 @@
         <v>37</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G22" s="17">
         <v>0</v>
@@ -76398,22 +76409,22 @@
     </row>
     <row r="23" spans="1:8" s="17" customFormat="1" ht="30">
       <c r="A23" s="11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G23" s="17">
         <v>0</v>
@@ -76424,10 +76435,10 @@
     </row>
     <row r="24" spans="1:8" s="17" customFormat="1" ht="28">
       <c r="A24" s="11" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>158</v>
@@ -76439,7 +76450,7 @@
         <v>211</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G24" s="17">
         <v>0</v>
@@ -76450,42 +76461,42 @@
     </row>
     <row r="25" spans="1:8" s="17" customFormat="1" ht="30">
       <c r="A25" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>159</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>204</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="17" customFormat="1">
       <c r="A26" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>160</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G26" s="17">
         <v>0</v>
@@ -76496,22 +76507,22 @@
     </row>
     <row r="27" spans="1:8" s="17" customFormat="1">
       <c r="A27" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>161</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G27" s="17">
         <v>0</v>
@@ -76522,50 +76533,50 @@
     </row>
     <row r="28" spans="1:8" s="17" customFormat="1">
       <c r="A28" s="11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>101</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="17" customFormat="1">
       <c r="A29" s="11" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>102</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="17" customFormat="1">
       <c r="A30" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>103</v>
@@ -76574,10 +76585,10 @@
         <v>104</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G30" s="17">
         <v>1900</v>
@@ -76588,22 +76599,22 @@
     </row>
     <row r="31" spans="1:8" s="17" customFormat="1">
       <c r="A31" s="11" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>162</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G31" s="17">
         <v>-1000</v>
@@ -76614,62 +76625,62 @@
     </row>
     <row r="32" spans="1:8" s="17" customFormat="1">
       <c r="A32" s="11" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="17" customFormat="1" ht="16.25" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>163</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="17" customFormat="1">
       <c r="A34" s="11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>164</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G34" s="17">
         <v>0</v>
@@ -76680,47 +76691,47 @@
     </row>
     <row r="35" spans="1:9" s="17" customFormat="1">
       <c r="A35" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="17" customFormat="1">
       <c r="A36" s="11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>165</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="17" customFormat="1" ht="30">
       <c r="A37" s="11" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>109</v>
@@ -76729,11 +76740,11 @@
         <v>110</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>182</v>
@@ -76741,58 +76752,58 @@
     </row>
     <row r="38" spans="1:9" s="17" customFormat="1">
       <c r="A38" s="11" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>111</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="17" customFormat="1" ht="30">
       <c r="A39" s="11" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>111</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="17" customFormat="1">
       <c r="A40" s="11" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>115</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E40" s="55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G40" s="17">
         <v>0</v>
@@ -76803,20 +76814,20 @@
     </row>
     <row r="41" spans="1:9" s="17" customFormat="1" ht="16" customHeight="1">
       <c r="A41" s="11" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>117</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E41" s="55"/>
       <c r="F41" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G41" s="17">
         <v>0</v>
@@ -76827,20 +76838,20 @@
     </row>
     <row r="42" spans="1:9" s="17" customFormat="1">
       <c r="A42" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>118</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E42" s="55"/>
       <c r="F42" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G42" s="17">
         <v>0</v>
@@ -76851,20 +76862,20 @@
     </row>
     <row r="43" spans="1:9" s="17" customFormat="1">
       <c r="A43" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>119</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E43" s="55"/>
       <c r="F43" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G43" s="17">
         <v>0</v>
@@ -76875,42 +76886,42 @@
     </row>
     <row r="44" spans="1:9" s="17" customFormat="1" ht="39" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="17" customFormat="1">
       <c r="A45" s="11" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>120</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E45" s="55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G45" s="17">
         <v>0</v>
@@ -76921,20 +76932,20 @@
     </row>
     <row r="46" spans="1:9" s="17" customFormat="1" ht="16" customHeight="1">
       <c r="A46" s="11" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>121</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E46" s="55"/>
       <c r="F46" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G46" s="17">
         <v>0</v>
@@ -76945,20 +76956,20 @@
     </row>
     <row r="47" spans="1:9" s="17" customFormat="1">
       <c r="A47" s="11" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>122</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E47" s="55"/>
       <c r="F47" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G47" s="17">
         <v>0</v>
@@ -76969,20 +76980,20 @@
     </row>
     <row r="48" spans="1:9" s="17" customFormat="1">
       <c r="A48" s="11" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E48" s="58"/>
       <c r="F48" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G48" s="17">
         <v>0</v>
@@ -76993,42 +77004,42 @@
     </row>
     <row r="49" spans="1:9" s="17" customFormat="1" ht="30">
       <c r="A49" s="11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>123</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="17" customFormat="1">
       <c r="A50" s="11" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>124</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E50" s="55" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G50" s="17">
         <v>0</v>
@@ -77039,20 +77050,20 @@
     </row>
     <row r="51" spans="1:9" s="17" customFormat="1" ht="16" customHeight="1">
       <c r="A51" s="11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>125</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E51" s="55"/>
       <c r="F51" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G51" s="17">
         <v>0</v>
@@ -77063,20 +77074,20 @@
     </row>
     <row r="52" spans="1:9" s="17" customFormat="1">
       <c r="A52" s="11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>126</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E52" s="55"/>
       <c r="F52" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G52" s="17">
         <v>0</v>
@@ -77087,20 +77098,20 @@
     </row>
     <row r="53" spans="1:9" s="17" customFormat="1">
       <c r="A53" s="11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>127</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E53" s="55"/>
       <c r="F53" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G53" s="17">
         <v>0</v>
@@ -77111,42 +77122,42 @@
     </row>
     <row r="54" spans="1:9" s="17" customFormat="1" ht="30">
       <c r="A54" s="11" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>128</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="17" customFormat="1">
       <c r="A55" s="11" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E55" s="55" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G55" s="17">
         <v>0</v>
@@ -77157,20 +77168,20 @@
     </row>
     <row r="56" spans="1:9" s="17" customFormat="1" ht="16" customHeight="1">
       <c r="A56" s="11" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>130</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E56" s="55"/>
       <c r="F56" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G56" s="17">
         <v>0</v>
@@ -77181,20 +77192,20 @@
     </row>
     <row r="57" spans="1:9" s="17" customFormat="1">
       <c r="A57" s="11" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>131</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E57" s="55"/>
       <c r="F57" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G57" s="17">
         <v>0</v>
@@ -77205,10 +77216,10 @@
     </row>
     <row r="58" spans="1:9" s="17" customFormat="1" ht="16" customHeight="1">
       <c r="A58" s="11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>133</v>
@@ -77217,10 +77228,10 @@
         <v>134</v>
       </c>
       <c r="E58" s="57" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G58" s="17">
         <v>0</v>
@@ -77229,15 +77240,15 @@
         <v>100</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="17" customFormat="1">
       <c r="A59" s="11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>135</v>
@@ -77247,7 +77258,7 @@
       </c>
       <c r="E59" s="57"/>
       <c r="F59" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G59" s="17">
         <v>0</v>
@@ -77256,15 +77267,15 @@
         <v>100</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="17" customFormat="1" ht="16" customHeight="1">
       <c r="A60" s="11" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>136</v>
@@ -77274,7 +77285,7 @@
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G60" s="17">
         <v>0</v>
@@ -77283,15 +77294,15 @@
         <v>100</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="17" customFormat="1">
       <c r="A61" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>166</v>
@@ -77301,7 +77312,7 @@
       </c>
       <c r="E61" s="57"/>
       <c r="F61" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G61" s="17">
         <v>0</v>
@@ -77310,15 +77321,15 @@
         <v>100</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="17" customFormat="1">
       <c r="A62" s="11" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>138</v>
@@ -77328,7 +77339,7 @@
       </c>
       <c r="E62" s="57"/>
       <c r="F62" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G62" s="17">
         <v>0</v>
@@ -77337,15 +77348,15 @@
         <v>100</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="17" customFormat="1">
       <c r="A63" s="11" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>139</v>
@@ -77355,7 +77366,7 @@
       </c>
       <c r="E63" s="57"/>
       <c r="F63" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G63" s="17">
         <v>0</v>
@@ -77364,15 +77375,15 @@
         <v>100</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="17" customFormat="1">
       <c r="A64" s="11" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>140</v>
@@ -77382,7 +77393,7 @@
       </c>
       <c r="E64" s="57"/>
       <c r="F64" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G64" s="17">
         <v>0</v>
@@ -77391,15 +77402,15 @@
         <v>100</v>
       </c>
       <c r="I64" s="17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="17" customFormat="1">
       <c r="A65" s="11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>141</v>
@@ -77409,7 +77420,7 @@
       </c>
       <c r="E65" s="57"/>
       <c r="F65" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G65" s="17">
         <v>0</v>
@@ -77418,15 +77429,15 @@
         <v>100</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="17" customFormat="1">
       <c r="A66" s="11" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>142</v>
@@ -77436,7 +77447,7 @@
       </c>
       <c r="E66" s="57"/>
       <c r="F66" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G66" s="17">
         <v>0</v>
@@ -77445,15 +77456,15 @@
         <v>100</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="17" customFormat="1">
       <c r="A67" s="11" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>143</v>
@@ -77463,7 +77474,7 @@
       </c>
       <c r="E67" s="57"/>
       <c r="F67" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G67" s="17">
         <v>0</v>
@@ -77472,15 +77483,15 @@
         <v>100</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="17" customFormat="1">
       <c r="A68" s="11" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>144</v>
@@ -77490,7 +77501,7 @@
       </c>
       <c r="E68" s="57"/>
       <c r="F68" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G68" s="17">
         <v>0</v>
@@ -77499,15 +77510,15 @@
         <v>100</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="17" customFormat="1">
       <c r="A69" s="11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>145</v>
@@ -77517,7 +77528,7 @@
       </c>
       <c r="E69" s="57"/>
       <c r="F69" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G69" s="17">
         <v>0</v>
@@ -77526,15 +77537,15 @@
         <v>100</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="17" customFormat="1">
       <c r="A70" s="11" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>146</v>
@@ -77544,7 +77555,7 @@
       </c>
       <c r="E70" s="57"/>
       <c r="F70" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G70" s="17">
         <v>0</v>
@@ -77553,15 +77564,15 @@
         <v>100</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="17" customFormat="1">
       <c r="A71" s="11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>147</v>
@@ -77571,7 +77582,7 @@
       </c>
       <c r="E71" s="57"/>
       <c r="F71" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G71" s="17">
         <v>0</v>
@@ -77580,25 +77591,25 @@
         <v>100</v>
       </c>
       <c r="I71" s="17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="17" customFormat="1">
       <c r="A72" s="11" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>134</v>
       </c>
       <c r="E72" s="57"/>
       <c r="F72" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G72" s="17">
         <v>0</v>
@@ -77607,7 +77618,7 @@
         <v>100</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="3" customFormat="1">
@@ -78465,8 +78476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScale="111" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView topLeftCell="B2" zoomScale="111" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -78482,13 +78493,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D1" s="36" t="s">
         <v>19</v>
@@ -78497,39 +78508,39 @@
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>818</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="45">
       <c r="A2" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -78537,280 +78548,280 @@
         <v>21</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>822</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>212</v>
+        <v>821</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="35" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>822</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>212</v>
+        <v>821</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="27" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="27" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C7" t="s">
+        <v>683</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="E7" t="s">
         <v>684</v>
       </c>
-      <c r="D7" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="E7" t="s">
-        <v>685</v>
-      </c>
       <c r="F7" s="49" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="27" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I8" s="45" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C10" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E10" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E11" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C12" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E12" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I12" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C13" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E13" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C14" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E14" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I14" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C15" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -78821,22 +78832,22 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C16" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -78847,22 +78858,22 @@
     </row>
     <row r="17" spans="1:8" ht="97.25" customHeight="1">
       <c r="A17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -78873,22 +78884,22 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G18">
         <v>-160</v>
@@ -78899,82 +78910,82 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>104</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G22">
         <v>1900</v>
@@ -78985,22 +78996,22 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G23">
         <v>-1000</v>
@@ -79011,62 +79022,62 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F26" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -79077,42 +79088,42 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F27" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F28" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/ISRaD_Template_Info.xlsx
+++ b/inst/extdata/ISRaD_Template_Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greymonroe/github/ISRaD/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06300E7A-0B38-1244-B28F-470429FC4B48}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7DD3A3-B47C-1748-B734-C21A7436F679}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="480" windowWidth="30600" windowHeight="18860" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="460" windowWidth="30600" windowHeight="18840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general info" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="fraction" sheetId="5" r:id="rId8"/>
     <sheet name="incubation" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -1396,12 +1396,6 @@
     <t>flx_rate_sd</t>
   </si>
   <si>
-    <t>flx_δ13C</t>
-  </si>
-  <si>
-    <t>flx_δ13C_sd</t>
-  </si>
-  <si>
     <t>flx_rc_lab</t>
   </si>
   <si>
@@ -2657,6 +2651,12 @@
   </si>
   <si>
     <t>Inf</t>
+  </si>
+  <si>
+    <t>flx_13C</t>
+  </si>
+  <si>
+    <t>flx_13C_sd</t>
   </si>
 </sst>
 </file>
@@ -4015,7 +4015,7 @@
         <v>242</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>241</v>
@@ -4035,7 +4035,7 @@
         <v>365</v>
       </c>
       <c r="B2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>369</v>
@@ -4055,7 +4055,7 @@
         <v>370</v>
       </c>
       <c r="B3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>371</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>1</v>
@@ -4091,7 +4091,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>3</v>
@@ -4109,7 +4109,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>6</v>
@@ -4127,7 +4127,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>9</v>
@@ -4145,7 +4145,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>12</v>
@@ -4163,7 +4163,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>14</v>
@@ -4181,7 +4181,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>16</v>
@@ -4199,7 +4199,7 @@
         <v>372</v>
       </c>
       <c r="B11" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>17</v>
@@ -4217,7 +4217,7 @@
         <v>215</v>
       </c>
       <c r="B12" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>216</v>
@@ -4235,7 +4235,7 @@
         <v>373</v>
       </c>
       <c r="B13" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>374</v>
@@ -4281,7 +4281,7 @@
         <v>242</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>241</v>
@@ -4293,16 +4293,16 @@
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>817</v>
-      </c>
       <c r="H1" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
@@ -4310,7 +4310,7 @@
         <v>365</v>
       </c>
       <c r="B2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>369</v>
@@ -4319,10 +4319,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="25" t="s">
+        <v>817</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>819</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>821</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -4335,7 +4335,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>22</v>
@@ -4344,10 +4344,10 @@
         <v>301</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -4360,7 +4360,7 @@
         <v>377</v>
       </c>
       <c r="B4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>23</v>
@@ -4386,7 +4386,7 @@
         <v>378</v>
       </c>
       <c r="B5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>25</v>
@@ -4410,7 +4410,7 @@
         <v>379</v>
       </c>
       <c r="B6" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>26</v>
@@ -4422,7 +4422,7 @@
         <v>219</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -4435,7 +4435,7 @@
         <v>380</v>
       </c>
       <c r="B7" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>30</v>
@@ -4461,7 +4461,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>29</v>
@@ -4473,7 +4473,7 @@
         <v>167</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -4517,7 +4517,7 @@
         <v>242</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>241</v>
@@ -4529,16 +4529,16 @@
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>817</v>
-      </c>
       <c r="H1" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
@@ -4546,7 +4546,7 @@
         <v>365</v>
       </c>
       <c r="B2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>369</v>
@@ -4558,7 +4558,7 @@
         <v>308</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>247</v>
@@ -4569,7 +4569,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>22</v>
@@ -4581,7 +4581,7 @@
         <v>312</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>247</v>
@@ -4592,7 +4592,7 @@
         <v>397</v>
       </c>
       <c r="B4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>398</v>
@@ -4604,7 +4604,7 @@
         <v>399</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>247</v>
@@ -4615,7 +4615,7 @@
         <v>393</v>
       </c>
       <c r="B5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>51</v>
@@ -4627,7 +4627,7 @@
         <v>264</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>247</v>
@@ -4638,7 +4638,7 @@
         <v>394</v>
       </c>
       <c r="B6" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>52</v>
@@ -4650,7 +4650,7 @@
         <v>265</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4658,7 +4658,7 @@
         <v>381</v>
       </c>
       <c r="B7" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>314</v>
@@ -4684,7 +4684,7 @@
         <v>382</v>
       </c>
       <c r="B8" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>315</v>
@@ -4708,7 +4708,7 @@
         <v>383</v>
       </c>
       <c r="B9" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>279</v>
@@ -4720,10 +4720,10 @@
         <v>286</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I9" s="46" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4731,7 +4731,7 @@
         <v>384</v>
       </c>
       <c r="B10" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>280</v>
@@ -4743,7 +4743,7 @@
         <v>288</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4751,7 +4751,7 @@
         <v>395</v>
       </c>
       <c r="B11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>271</v>
@@ -4763,10 +4763,10 @@
         <v>272</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4774,7 +4774,7 @@
         <v>396</v>
       </c>
       <c r="B12" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>273</v>
@@ -4792,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="46" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I12" s="46"/>
     </row>
@@ -4801,7 +4801,7 @@
         <v>385</v>
       </c>
       <c r="B13" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>281</v>
@@ -4827,7 +4827,7 @@
         <v>386</v>
       </c>
       <c r="B14" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>282</v>
@@ -4853,7 +4853,7 @@
         <v>400</v>
       </c>
       <c r="B15" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>276</v>
@@ -4863,7 +4863,7 @@
         <v>317</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4871,7 +4871,7 @@
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>58</v>
@@ -4881,15 +4881,15 @@
         <v>320</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1">
       <c r="A17" s="13" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B17" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>319</v>
@@ -4901,10 +4901,10 @@
         <v>316</v>
       </c>
       <c r="F17" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="I17" s="47" t="s">
         <v>821</v>
-      </c>
-      <c r="I17" s="47" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1">
@@ -4912,7 +4912,7 @@
         <v>403</v>
       </c>
       <c r="B18" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>404</v>
@@ -4935,7 +4935,7 @@
         <v>387</v>
       </c>
       <c r="B19" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>283</v>
@@ -4961,7 +4961,7 @@
         <v>388</v>
       </c>
       <c r="B20" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>284</v>
@@ -4987,7 +4987,7 @@
         <v>402</v>
       </c>
       <c r="B21" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>47</v>
@@ -4999,7 +4999,7 @@
         <v>277</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>177</v>
@@ -5010,7 +5010,7 @@
         <v>389</v>
       </c>
       <c r="B22" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>55</v>
@@ -5022,7 +5022,7 @@
         <v>295</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -5030,7 +5030,7 @@
         <v>407</v>
       </c>
       <c r="B23" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>59</v>
@@ -5053,7 +5053,7 @@
         <v>408</v>
       </c>
       <c r="B24" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>42</v>
@@ -5071,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30">
@@ -5079,7 +5079,7 @@
         <v>409</v>
       </c>
       <c r="B25" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>60</v>
@@ -5099,7 +5099,7 @@
         <v>410</v>
       </c>
       <c r="B26" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>270</v>
@@ -5111,7 +5111,7 @@
         <v>296</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>179</v>
@@ -5122,7 +5122,7 @@
         <v>411</v>
       </c>
       <c r="B27" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>268</v>
@@ -5134,7 +5134,7 @@
         <v>269</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>180</v>
@@ -5145,7 +5145,7 @@
         <v>412</v>
       </c>
       <c r="B28" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>221</v>
@@ -5157,7 +5157,7 @@
         <v>267</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="45">
@@ -5165,7 +5165,7 @@
         <v>413</v>
       </c>
       <c r="B29" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>56</v>
@@ -5177,7 +5177,7 @@
         <v>191</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I29" s="11" t="s">
         <v>181</v>
@@ -5188,7 +5188,7 @@
         <v>414</v>
       </c>
       <c r="B30" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>34</v>
@@ -5200,7 +5200,7 @@
         <v>170</v>
       </c>
       <c r="F30" s="46" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>175</v>
@@ -5211,7 +5211,7 @@
         <v>415</v>
       </c>
       <c r="B31" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>32</v>
@@ -5237,7 +5237,7 @@
         <v>416</v>
       </c>
       <c r="B32" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>36</v>
@@ -5264,7 +5264,7 @@
         <v>417</v>
       </c>
       <c r="B33" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>38</v>
@@ -5276,7 +5276,7 @@
         <v>266</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I33" s="14" t="s">
         <v>176</v>
@@ -5287,7 +5287,7 @@
         <v>418</v>
       </c>
       <c r="B34" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>40</v>
@@ -5299,7 +5299,7 @@
         <v>297</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I34" s="14" t="s">
         <v>178</v>
@@ -5310,7 +5310,7 @@
         <v>390</v>
       </c>
       <c r="B35" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>61</v>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="46" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30">
@@ -5336,7 +5336,7 @@
         <v>391</v>
       </c>
       <c r="B36" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>62</v>
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="46" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="30">
@@ -5362,7 +5362,7 @@
         <v>392</v>
       </c>
       <c r="B37" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>63</v>
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="46" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -5407,8 +5407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E12" zoomScale="117" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="117" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -5427,7 +5427,7 @@
         <v>242</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>241</v>
@@ -5439,16 +5439,16 @@
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>817</v>
-      </c>
       <c r="H1" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
@@ -5456,7 +5456,7 @@
         <v>365</v>
       </c>
       <c r="B2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>369</v>
@@ -5468,7 +5468,7 @@
         <v>308</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>247</v>
@@ -5479,7 +5479,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -5491,7 +5491,7 @@
         <v>312</v>
       </c>
       <c r="F3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>247</v>
@@ -5502,7 +5502,7 @@
         <v>397</v>
       </c>
       <c r="B4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C4" t="s">
         <v>398</v>
@@ -5511,10 +5511,10 @@
         <v>299</v>
       </c>
       <c r="E4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F4" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>247</v>
@@ -5525,19 +5525,19 @@
         <v>393</v>
       </c>
       <c r="B5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D5" t="s">
         <v>299</v>
       </c>
       <c r="E5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>247</v>
@@ -5548,16 +5548,16 @@
         <v>419</v>
       </c>
       <c r="B6" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F6" t="s">
         <v>218</v>
@@ -5574,10 +5574,10 @@
         <v>420</v>
       </c>
       <c r="B7" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -5598,19 +5598,19 @@
         <v>421</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5618,19 +5618,19 @@
         <v>422</v>
       </c>
       <c r="B9" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F9" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I9" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5638,16 +5638,16 @@
         <v>423</v>
       </c>
       <c r="B10" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F10" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5655,19 +5655,19 @@
         <v>424</v>
       </c>
       <c r="B11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F11" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5675,19 +5675,19 @@
         <v>425</v>
       </c>
       <c r="B12" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F12" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I12" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5695,19 +5695,19 @@
         <v>426</v>
       </c>
       <c r="B13" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C13" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F13" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I13" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5715,16 +5715,16 @@
         <v>427</v>
       </c>
       <c r="B14" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C14" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F14" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5732,19 +5732,19 @@
         <v>428</v>
       </c>
       <c r="B15" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C15" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E15" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F15" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I15" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -5752,16 +5752,16 @@
         <v>429</v>
       </c>
       <c r="B16" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C16" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D16" t="s">
         <v>218</v>
       </c>
       <c r="E16" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F16" t="s">
         <v>218</v>
@@ -5775,22 +5775,22 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
+        <v>485</v>
+      </c>
+      <c r="B17" t="s">
+        <v>812</v>
+      </c>
+      <c r="C17" t="s">
+        <v>486</v>
+      </c>
+      <c r="E17" t="s">
         <v>487</v>
       </c>
-      <c r="B17" t="s">
-        <v>814</v>
-      </c>
-      <c r="C17" t="s">
-        <v>488</v>
-      </c>
-      <c r="E17" t="s">
-        <v>489</v>
-      </c>
       <c r="F17" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I17" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -5798,22 +5798,22 @@
         <v>430</v>
       </c>
       <c r="B18" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C18" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E18" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F18" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I18" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -5821,22 +5821,22 @@
         <v>431</v>
       </c>
       <c r="B19" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C19" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D19" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E19" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F19" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I19" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -5844,16 +5844,16 @@
         <v>432</v>
       </c>
       <c r="B20" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C20" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E20" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F20" t="s">
         <v>218</v>
@@ -5870,16 +5870,16 @@
         <v>433</v>
       </c>
       <c r="B21" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C21" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D21" t="s">
         <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F21" t="s">
         <v>218</v>
@@ -5896,16 +5896,16 @@
         <v>434</v>
       </c>
       <c r="B22" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C22" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D22" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F22" t="s">
         <v>218</v>
@@ -5922,16 +5922,16 @@
         <v>435</v>
       </c>
       <c r="B23" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C23" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D23" t="s">
         <v>218</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F23" t="s">
         <v>218</v>
@@ -5948,16 +5948,16 @@
         <v>436</v>
       </c>
       <c r="B24" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C24" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D24" t="s">
         <v>218</v>
       </c>
       <c r="E24" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F24" t="s">
         <v>218</v>
@@ -5965,19 +5965,19 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>437</v>
+        <v>856</v>
       </c>
       <c r="B25" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C25" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E25" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F25" t="s">
         <v>218</v>
@@ -5991,19 +5991,19 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>438</v>
+        <v>857</v>
       </c>
       <c r="B26" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C26" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D26" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E26" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F26" t="s">
         <v>218</v>
@@ -6011,59 +6011,59 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B27" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C27" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D27" t="s">
         <v>299</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F27" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B28" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C28" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D28" t="s">
         <v>299</v>
       </c>
       <c r="E28" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F28" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B29" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C29" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D29" t="s">
         <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F29" s="47" t="s">
         <v>218</v>
@@ -6072,24 +6072,24 @@
         <v>1900</v>
       </c>
       <c r="H29" s="47" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B30" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C30" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D30" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E30" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F30" t="s">
         <v>218</v>
@@ -6103,19 +6103,19 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B31" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C31" t="s">
+        <v>500</v>
+      </c>
+      <c r="D31" t="s">
+        <v>454</v>
+      </c>
+      <c r="E31" t="s">
         <v>502</v>
-      </c>
-      <c r="D31" t="s">
-        <v>456</v>
-      </c>
-      <c r="E31" t="s">
-        <v>504</v>
       </c>
       <c r="F31" t="s">
         <v>218</v>
@@ -6123,19 +6123,19 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B32" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C32" t="s">
+        <v>501</v>
+      </c>
+      <c r="D32" t="s">
+        <v>454</v>
+      </c>
+      <c r="E32" t="s">
         <v>503</v>
-      </c>
-      <c r="D32" t="s">
-        <v>456</v>
-      </c>
-      <c r="E32" t="s">
-        <v>505</v>
       </c>
       <c r="F32" t="s">
         <v>218</v>
@@ -6143,19 +6143,19 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B33" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C33" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D33" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E33" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F33" t="s">
         <v>218</v>
@@ -6169,19 +6169,19 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B34" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C34" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D34" t="s">
         <v>218</v>
       </c>
       <c r="E34" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F34" t="s">
         <v>218</v>
@@ -6189,19 +6189,19 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B35" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C35" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D35" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E35" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F35" t="s">
         <v>218</v>
@@ -6250,7 +6250,7 @@
         <v>242</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>241</v>
@@ -6262,16 +6262,16 @@
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>817</v>
-      </c>
       <c r="H1" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="2" spans="1:9" customFormat="1">
@@ -6279,7 +6279,7 @@
         <v>365</v>
       </c>
       <c r="B2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>369</v>
@@ -6291,7 +6291,7 @@
         <v>308</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G2" s="42"/>
       <c r="H2" s="42"/>
@@ -6304,7 +6304,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>22</v>
@@ -6316,7 +6316,7 @@
         <v>312</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>247</v>
@@ -6327,10 +6327,10 @@
         <v>393</v>
       </c>
       <c r="B4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>301</v>
@@ -6339,7 +6339,7 @@
         <v>321</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>247</v>
@@ -6347,10 +6347,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="10" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>64</v>
@@ -6362,7 +6362,7 @@
         <v>326</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>247</v>
@@ -6370,74 +6370,74 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="B6" t="s">
+        <v>811</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>846</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="B6" t="s">
-        <v>813</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>848</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>593</v>
-      </c>
       <c r="F6" s="44" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B7" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="10" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B8" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>599</v>
-      </c>
       <c r="F8" s="42" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="10" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B9" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>65</v>
@@ -6446,7 +6446,7 @@
         <v>43</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>218</v>
@@ -6454,10 +6454,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="10" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B10" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>66</v>
@@ -6466,7 +6466,7 @@
         <v>43</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F10" s="42" t="s">
         <v>218</v>
@@ -6474,10 +6474,10 @@
     </row>
     <row r="11" spans="1:9" ht="30">
       <c r="A11" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>67</v>
@@ -6489,38 +6489,38 @@
         <v>185</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I12" s="54" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>68</v>
@@ -6530,15 +6530,15 @@
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="42" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>69</v>
@@ -6548,15 +6548,15 @@
         <v>192</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>70</v>
@@ -6568,18 +6568,18 @@
         <v>193</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I15" s="54" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>72</v>
@@ -6596,10 +6596,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>74</v>
@@ -6616,10 +6616,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>75</v>
@@ -6629,15 +6629,15 @@
         <v>196</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30">
       <c r="A19" s="11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>78</v>
@@ -6660,10 +6660,10 @@
     </row>
     <row r="20" spans="1:8" ht="30">
       <c r="A20" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>79</v>
@@ -6686,10 +6686,10 @@
     </row>
     <row r="21" spans="1:8" ht="30">
       <c r="A21" s="11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>80</v>
@@ -6712,10 +6712,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>81</v>
@@ -6738,10 +6738,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>82</v>
@@ -6759,15 +6759,15 @@
         <v>0</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>83</v>
@@ -6779,15 +6779,15 @@
         <v>364</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="27.5" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>85</v>
@@ -6805,15 +6805,15 @@
         <v>0</v>
       </c>
       <c r="H25" s="42" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>76</v>
@@ -6834,10 +6834,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="11" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>77</v>
@@ -6858,10 +6858,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>225</v>
@@ -6882,10 +6882,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="11" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>226</v>
@@ -6897,15 +6897,15 @@
         <v>223</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>86</v>
@@ -6922,10 +6922,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>88</v>
@@ -6942,10 +6942,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="11" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>347</v>
@@ -6962,10 +6962,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="11" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>228</v>
@@ -6982,10 +6982,10 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="11" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>229</v>
@@ -7000,10 +7000,10 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="11" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>230</v>
@@ -7018,10 +7018,10 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="11" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>231</v>
@@ -7036,10 +7036,10 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>90</v>
@@ -7054,10 +7054,10 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="11" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>91</v>
@@ -7080,10 +7080,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>232</v>
@@ -7106,10 +7106,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>233</v>
@@ -7132,10 +7132,10 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>234</v>
@@ -7158,10 +7158,10 @@
     </row>
     <row r="42" spans="1:8" ht="30">
       <c r="A42" s="11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>92</v>
@@ -7178,10 +7178,10 @@
     </row>
     <row r="43" spans="1:8" ht="30">
       <c r="A43" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>93</v>
@@ -7198,10 +7198,10 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>94</v>
@@ -7224,10 +7224,10 @@
     </row>
     <row r="45" spans="1:8" ht="30">
       <c r="A45" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>95</v>
@@ -7244,10 +7244,10 @@
     </row>
     <row r="46" spans="1:8" ht="30">
       <c r="A46" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>97</v>
@@ -7270,16 +7270,16 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>207</v>
@@ -7296,19 +7296,19 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F48" s="42" t="s">
         <v>218</v>
@@ -7322,10 +7322,10 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>101</v>
@@ -7334,36 +7334,36 @@
         <v>100</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F49" s="42" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>102</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F50" s="42" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>103</v>
@@ -7372,7 +7372,7 @@
         <v>104</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F51" s="42" t="s">
         <v>218</v>
@@ -7381,24 +7381,24 @@
         <v>1900</v>
       </c>
       <c r="H51" s="52" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>105</v>
       </c>
       <c r="D52" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F52" s="42" t="s">
         <v>218</v>
@@ -7412,19 +7412,19 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D53" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F53" s="42" t="s">
         <v>218</v>
@@ -7438,10 +7438,10 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="11" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>106</v>
@@ -7450,7 +7450,7 @@
         <v>218</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F54" s="42" t="s">
         <v>218</v>
@@ -7458,10 +7458,10 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="11" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>107</v>
@@ -7470,7 +7470,7 @@
         <v>218</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F55" s="42" t="s">
         <v>218</v>
@@ -7484,19 +7484,19 @@
     </row>
     <row r="56" spans="1:9" ht="30">
       <c r="A56" s="11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>218</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F56" s="42" t="s">
         <v>218</v>
@@ -7504,10 +7504,10 @@
     </row>
     <row r="57" spans="1:9" ht="30">
       <c r="A57" s="11" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>108</v>
@@ -7516,7 +7516,7 @@
         <v>218</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F57" s="42" t="s">
         <v>218</v>
@@ -7524,10 +7524,10 @@
     </row>
     <row r="58" spans="1:9" ht="98.5" customHeight="1">
       <c r="A58" s="46" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>109</v>
@@ -7539,7 +7539,7 @@
         <v>329</v>
       </c>
       <c r="F58" s="53" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I58" s="11" t="s">
         <v>182</v>
@@ -7547,10 +7547,10 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>342</v>
@@ -7564,10 +7564,10 @@
     </row>
     <row r="60" spans="1:9" ht="30">
       <c r="A60" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>333</v>
@@ -7582,10 +7582,10 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="11" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>112</v>
@@ -7600,10 +7600,10 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="11" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>113</v>
@@ -7613,15 +7613,15 @@
         <v>343</v>
       </c>
       <c r="F62" s="42" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>114</v>
@@ -7633,15 +7633,15 @@
         <v>344</v>
       </c>
       <c r="F63" s="42" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>115</v>
@@ -7664,10 +7664,10 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>117</v>
@@ -7688,10 +7688,10 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>118</v>
@@ -7712,10 +7712,10 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="11" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>119</v>
@@ -7736,10 +7736,10 @@
     </row>
     <row r="68" spans="1:8" ht="30">
       <c r="A68" s="11" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>337</v>
@@ -7751,15 +7751,15 @@
         <v>336</v>
       </c>
       <c r="F68" s="42" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="11" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>120</v>
@@ -7782,10 +7782,10 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="11" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>121</v>
@@ -7806,10 +7806,10 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>122</v>
@@ -7830,13 +7830,13 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="11" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>116</v>
@@ -7854,10 +7854,10 @@
     </row>
     <row r="73" spans="1:8" ht="30">
       <c r="A73" s="11" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>123</v>
@@ -7869,15 +7869,15 @@
         <v>339</v>
       </c>
       <c r="F73" s="42" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="11" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>124</v>
@@ -7900,10 +7900,10 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>125</v>
@@ -7924,10 +7924,10 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>126</v>
@@ -7948,10 +7948,10 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>127</v>
@@ -7972,10 +7972,10 @@
     </row>
     <row r="78" spans="1:8" ht="30">
       <c r="A78" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>128</v>
@@ -7998,10 +7998,10 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>129</v>
@@ -8024,10 +8024,10 @@
     </row>
     <row r="80" spans="1:8" ht="30" customHeight="1">
       <c r="A80" s="11" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>130</v>
@@ -8048,10 +8048,10 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>131</v>
@@ -8072,10 +8072,10 @@
     </row>
     <row r="82" spans="1:9" ht="30">
       <c r="A82" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>132</v>
@@ -8098,10 +8098,10 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="11" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>133</v>
@@ -8122,15 +8122,15 @@
         <v>100</v>
       </c>
       <c r="I83" s="42" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>135</v>
@@ -8149,15 +8149,15 @@
         <v>100</v>
       </c>
       <c r="I84" s="42" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="11" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>136</v>
@@ -8176,15 +8176,15 @@
         <v>100</v>
       </c>
       <c r="I85" s="42" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>137</v>
@@ -8203,15 +8203,15 @@
         <v>100</v>
       </c>
       <c r="I86" s="42" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>138</v>
@@ -8230,15 +8230,15 @@
         <v>100</v>
       </c>
       <c r="I87" s="42" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="11" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>139</v>
@@ -8257,15 +8257,15 @@
         <v>100</v>
       </c>
       <c r="I88" s="42" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="11" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>140</v>
@@ -8284,15 +8284,15 @@
         <v>100</v>
       </c>
       <c r="I89" s="42" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>141</v>
@@ -8311,15 +8311,15 @@
         <v>100</v>
       </c>
       <c r="I90" s="42" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>142</v>
@@ -8338,15 +8338,15 @@
         <v>100</v>
       </c>
       <c r="I91" s="42" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="11" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>143</v>
@@ -8365,15 +8365,15 @@
         <v>100</v>
       </c>
       <c r="I92" s="42" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="11" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>144</v>
@@ -8392,15 +8392,15 @@
         <v>100</v>
       </c>
       <c r="I93" s="42" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="30">
       <c r="A94" s="11" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>145</v>
@@ -8419,15 +8419,15 @@
         <v>100</v>
       </c>
       <c r="I94" s="42" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="11" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>146</v>
@@ -8446,15 +8446,15 @@
         <v>100</v>
       </c>
       <c r="I95" s="42" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="11" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>147</v>
@@ -8473,15 +8473,15 @@
         <v>100</v>
       </c>
       <c r="I96" s="42" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>235</v>
@@ -8500,15 +8500,15 @@
         <v>100</v>
       </c>
       <c r="I97" s="42" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>236</v>
@@ -8527,7 +8527,7 @@
         <v>100</v>
       </c>
       <c r="I98" s="42" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -9842,7 +9842,7 @@
         <v>242</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>241</v>
@@ -9854,16 +9854,16 @@
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>817</v>
-      </c>
       <c r="H1" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="45">
@@ -9871,7 +9871,7 @@
         <v>365</v>
       </c>
       <c r="B2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>369</v>
@@ -9883,7 +9883,7 @@
         <v>308</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>247</v>
@@ -9894,7 +9894,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>22</v>
@@ -9906,7 +9906,7 @@
         <v>312</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>247</v>
@@ -9917,10 +9917,10 @@
         <v>393</v>
       </c>
       <c r="B4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>301</v>
@@ -9929,7 +9929,7 @@
         <v>321</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>247</v>
@@ -9937,39 +9937,39 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="35" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="35" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B6" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F6" s="49" t="s">
         <v>218</v>
@@ -9978,116 +9978,116 @@
         <v>0</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="32" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="31" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I8" s="49" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="31" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>812</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>658</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>657</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>814</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>658</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>660</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>659</v>
-      </c>
       <c r="F10" s="49" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="31" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F11" s="49" t="s">
         <v>218</v>
@@ -10096,24 +10096,24 @@
         <v>0</v>
       </c>
       <c r="H11" s="49" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="31" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F12" s="49" t="s">
         <v>218</v>
@@ -10127,19 +10127,19 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="31" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D13" t="s">
         <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F13" s="49" t="s">
         <v>218</v>
@@ -10153,19 +10153,19 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="31" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F14" s="49" t="s">
         <v>218</v>
@@ -10179,16 +10179,16 @@
     </row>
     <row r="15" spans="1:9" ht="81.5" customHeight="1">
       <c r="A15" s="31" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F15" s="49" t="s">
         <v>218</v>
@@ -10199,19 +10199,19 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="31" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F16" s="49" t="s">
         <v>218</v>
@@ -10225,19 +10225,19 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="31" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F17" s="49" t="s">
         <v>218</v>
@@ -10245,59 +10245,59 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="31" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>299</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="31" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>299</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="31" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>104</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F20" s="49" t="s">
         <v>218</v>
@@ -10311,19 +10311,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="31" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F21" s="49" t="s">
         <v>218</v>
@@ -10337,19 +10337,19 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="31" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F22" s="49" t="s">
         <v>218</v>
@@ -10357,19 +10357,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="31" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F23" s="49" t="s">
         <v>218</v>
@@ -10377,19 +10377,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="31" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F24" s="49" t="s">
         <v>218</v>
@@ -10403,19 +10403,19 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="31" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>218</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F25" s="49" t="s">
         <v>218</v>
@@ -10423,19 +10423,19 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="31" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F26" s="49" t="s">
         <v>218</v>
@@ -75914,7 +75914,7 @@
         <v>242</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>241</v>
@@ -75926,16 +75926,16 @@
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>817</v>
-      </c>
       <c r="H1" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="30">
@@ -75943,7 +75943,7 @@
         <v>365</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>369</v>
@@ -75955,7 +75955,7 @@
         <v>308</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>247</v>
@@ -75966,7 +75966,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>22</v>
@@ -75978,7 +75978,7 @@
         <v>312</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>247</v>
@@ -75989,7 +75989,7 @@
         <v>393</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>51</v>
@@ -76001,7 +76001,7 @@
         <v>321</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I4" s="46" t="s">
         <v>247</v>
@@ -76009,10 +76009,10 @@
     </row>
     <row r="5" spans="1:9" s="17" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>64</v>
@@ -76024,7 +76024,7 @@
         <v>327</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>247</v>
@@ -76032,10 +76032,10 @@
     </row>
     <row r="6" spans="1:9" s="17" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>148</v>
@@ -76044,50 +76044,50 @@
         <v>301</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="17" customFormat="1" ht="30">
       <c r="A7" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>355</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="17" customFormat="1" ht="30">
       <c r="A8" s="11" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>150</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>209</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>184</v>
@@ -76095,22 +76095,22 @@
     </row>
     <row r="9" spans="1:9" s="17" customFormat="1" ht="32.5" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>149</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>208</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>183</v>
@@ -76118,30 +76118,30 @@
     </row>
     <row r="10" spans="1:9" s="17" customFormat="1">
       <c r="A10" s="10" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>151</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>210</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="17" customFormat="1">
       <c r="A11" s="10" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>244</v>
@@ -76150,7 +76150,7 @@
         <v>245</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>218</v>
@@ -76158,10 +76158,10 @@
     </row>
     <row r="12" spans="1:9" s="17" customFormat="1">
       <c r="A12" s="10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>246</v>
@@ -76170,7 +76170,7 @@
         <v>245</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>218</v>
@@ -76178,30 +76178,30 @@
     </row>
     <row r="13" spans="1:9" s="17" customFormat="1">
       <c r="A13" s="10" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>237</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>360</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="17" customFormat="1">
       <c r="A14" s="39" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>152</v>
@@ -76218,10 +76218,10 @@
     </row>
     <row r="15" spans="1:9" s="17" customFormat="1">
       <c r="A15" s="11" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>153</v>
@@ -76233,18 +76233,18 @@
         <v>353</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="17" customFormat="1">
       <c r="A16" s="11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>154</v>
@@ -76256,15 +76256,15 @@
         <v>354</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="17" customFormat="1">
       <c r="A17" s="11" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>155</v>
@@ -76287,36 +76287,36 @@
     </row>
     <row r="18" spans="1:8" s="17" customFormat="1">
       <c r="A18" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>350</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="17" customFormat="1">
       <c r="A19" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>327</v>
@@ -76331,10 +76331,10 @@
     </row>
     <row r="20" spans="1:8" s="17" customFormat="1">
       <c r="A20" s="11" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>238</v>
@@ -76357,10 +76357,10 @@
     </row>
     <row r="21" spans="1:8" s="17" customFormat="1">
       <c r="A21" s="11" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>156</v>
@@ -76383,10 +76383,10 @@
     </row>
     <row r="22" spans="1:8" s="17" customFormat="1">
       <c r="A22" s="11" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>157</v>
@@ -76409,10 +76409,10 @@
     </row>
     <row r="23" spans="1:8" s="17" customFormat="1" ht="30">
       <c r="A23" s="11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>239</v>
@@ -76435,10 +76435,10 @@
     </row>
     <row r="24" spans="1:8" s="17" customFormat="1" ht="28">
       <c r="A24" s="11" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>158</v>
@@ -76461,10 +76461,10 @@
     </row>
     <row r="25" spans="1:8" s="17" customFormat="1" ht="30">
       <c r="A25" s="11" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>159</v>
@@ -76481,16 +76481,16 @@
     </row>
     <row r="26" spans="1:8" s="17" customFormat="1">
       <c r="A26" s="11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>160</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>327</v>
@@ -76507,19 +76507,19 @@
     </row>
     <row r="27" spans="1:8" s="17" customFormat="1">
       <c r="A27" s="11" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>161</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>218</v>
@@ -76533,10 +76533,10 @@
     </row>
     <row r="28" spans="1:8" s="17" customFormat="1">
       <c r="A28" s="11" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>101</v>
@@ -76545,18 +76545,18 @@
         <v>301</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="17" customFormat="1">
       <c r="A29" s="11" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>102</v>
@@ -76565,18 +76565,18 @@
         <v>301</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="17" customFormat="1">
       <c r="A30" s="11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>103</v>
@@ -76585,7 +76585,7 @@
         <v>104</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>218</v>
@@ -76599,19 +76599,19 @@
     </row>
     <row r="31" spans="1:8" s="17" customFormat="1">
       <c r="A31" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>162</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>218</v>
@@ -76625,19 +76625,19 @@
     </row>
     <row r="32" spans="1:8" s="17" customFormat="1">
       <c r="A32" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>218</v>
@@ -76645,19 +76645,19 @@
     </row>
     <row r="33" spans="1:9" s="17" customFormat="1" ht="16.25" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>163</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>218</v>
@@ -76665,10 +76665,10 @@
     </row>
     <row r="34" spans="1:9" s="17" customFormat="1">
       <c r="A34" s="11" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>164</v>
@@ -76677,7 +76677,7 @@
         <v>218</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>218</v>
@@ -76691,19 +76691,19 @@
     </row>
     <row r="35" spans="1:9" s="17" customFormat="1">
       <c r="A35" s="11" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>218</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F35" s="17" t="s">
         <v>218</v>
@@ -76711,10 +76711,10 @@
     </row>
     <row r="36" spans="1:9" s="17" customFormat="1">
       <c r="A36" s="11" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>165</v>
@@ -76723,7 +76723,7 @@
         <v>218</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F36" s="17" t="s">
         <v>218</v>
@@ -76731,7 +76731,7 @@
     </row>
     <row r="37" spans="1:9" s="17" customFormat="1" ht="30">
       <c r="A37" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>109</v>
@@ -76744,7 +76744,7 @@
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="17" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>182</v>
@@ -76752,10 +76752,10 @@
     </row>
     <row r="38" spans="1:9" s="17" customFormat="1">
       <c r="A38" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>850</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>852</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>111</v>
@@ -76770,10 +76770,10 @@
     </row>
     <row r="39" spans="1:9" s="17" customFormat="1" ht="30">
       <c r="A39" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>851</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>853</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>111</v>
@@ -76788,16 +76788,16 @@
     </row>
     <row r="40" spans="1:9" s="17" customFormat="1">
       <c r="A40" s="11" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>115</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E40" s="55" t="s">
         <v>335</v>
@@ -76814,16 +76814,16 @@
     </row>
     <row r="41" spans="1:9" s="17" customFormat="1" ht="16" customHeight="1">
       <c r="A41" s="11" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>117</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E41" s="55"/>
       <c r="F41" s="17" t="s">
@@ -76838,16 +76838,16 @@
     </row>
     <row r="42" spans="1:9" s="17" customFormat="1">
       <c r="A42" s="11" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>118</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E42" s="55"/>
       <c r="F42" s="17" t="s">
@@ -76862,16 +76862,16 @@
     </row>
     <row r="43" spans="1:9" s="17" customFormat="1">
       <c r="A43" s="11" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>119</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E43" s="55"/>
       <c r="F43" s="17" t="s">
@@ -76886,10 +76886,10 @@
     </row>
     <row r="44" spans="1:9" s="17" customFormat="1" ht="39" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>337</v>
@@ -76901,21 +76901,21 @@
         <v>336</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="17" customFormat="1">
       <c r="A45" s="11" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>120</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E45" s="55" t="s">
         <v>338</v>
@@ -76932,16 +76932,16 @@
     </row>
     <row r="46" spans="1:9" s="17" customFormat="1" ht="16" customHeight="1">
       <c r="A46" s="11" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>121</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E46" s="55"/>
       <c r="F46" s="17" t="s">
@@ -76956,16 +76956,16 @@
     </row>
     <row r="47" spans="1:9" s="17" customFormat="1">
       <c r="A47" s="11" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>122</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E47" s="55"/>
       <c r="F47" s="17" t="s">
@@ -76980,16 +76980,16 @@
     </row>
     <row r="48" spans="1:9" s="17" customFormat="1">
       <c r="A48" s="11" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E48" s="58"/>
       <c r="F48" s="17" t="s">
@@ -77004,10 +77004,10 @@
     </row>
     <row r="49" spans="1:9" s="17" customFormat="1" ht="30">
       <c r="A49" s="11" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>123</v>
@@ -77019,21 +77019,21 @@
         <v>339</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="17" customFormat="1">
       <c r="A50" s="11" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>124</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E50" s="55" t="s">
         <v>340</v>
@@ -77050,16 +77050,16 @@
     </row>
     <row r="51" spans="1:9" s="17" customFormat="1" ht="16" customHeight="1">
       <c r="A51" s="11" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>125</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E51" s="55"/>
       <c r="F51" s="17" t="s">
@@ -77074,16 +77074,16 @@
     </row>
     <row r="52" spans="1:9" s="17" customFormat="1">
       <c r="A52" s="11" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>126</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E52" s="55"/>
       <c r="F52" s="17" t="s">
@@ -77098,16 +77098,16 @@
     </row>
     <row r="53" spans="1:9" s="17" customFormat="1">
       <c r="A53" s="11" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>127</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E53" s="55"/>
       <c r="F53" s="17" t="s">
@@ -77122,10 +77122,10 @@
     </row>
     <row r="54" spans="1:9" s="17" customFormat="1" ht="30">
       <c r="A54" s="11" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>128</v>
@@ -77137,21 +77137,21 @@
         <v>341</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="17" customFormat="1">
       <c r="A55" s="11" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E55" s="55" t="s">
         <v>340</v>
@@ -77168,16 +77168,16 @@
     </row>
     <row r="56" spans="1:9" s="17" customFormat="1" ht="16" customHeight="1">
       <c r="A56" s="11" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>130</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E56" s="55"/>
       <c r="F56" s="17" t="s">
@@ -77192,16 +77192,16 @@
     </row>
     <row r="57" spans="1:9" s="17" customFormat="1">
       <c r="A57" s="11" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>131</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E57" s="55"/>
       <c r="F57" s="17" t="s">
@@ -77216,10 +77216,10 @@
     </row>
     <row r="58" spans="1:9" s="17" customFormat="1" ht="16" customHeight="1">
       <c r="A58" s="11" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>133</v>
@@ -77240,15 +77240,15 @@
         <v>100</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="17" customFormat="1">
       <c r="A59" s="11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>135</v>
@@ -77267,15 +77267,15 @@
         <v>100</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="17" customFormat="1" ht="16" customHeight="1">
       <c r="A60" s="11" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>136</v>
@@ -77294,15 +77294,15 @@
         <v>100</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="17" customFormat="1">
       <c r="A61" s="11" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>166</v>
@@ -77321,15 +77321,15 @@
         <v>100</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="17" customFormat="1">
       <c r="A62" s="11" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>138</v>
@@ -77348,15 +77348,15 @@
         <v>100</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="17" customFormat="1">
       <c r="A63" s="11" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>139</v>
@@ -77375,15 +77375,15 @@
         <v>100</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="17" customFormat="1">
       <c r="A64" s="11" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>140</v>
@@ -77402,15 +77402,15 @@
         <v>100</v>
       </c>
       <c r="I64" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="17" customFormat="1">
       <c r="A65" s="11" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>141</v>
@@ -77429,15 +77429,15 @@
         <v>100</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="17" customFormat="1">
       <c r="A66" s="11" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>142</v>
@@ -77456,15 +77456,15 @@
         <v>100</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="17" customFormat="1">
       <c r="A67" s="11" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>143</v>
@@ -77483,15 +77483,15 @@
         <v>100</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="17" customFormat="1">
       <c r="A68" s="11" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>144</v>
@@ -77510,15 +77510,15 @@
         <v>100</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="17" customFormat="1">
       <c r="A69" s="11" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>145</v>
@@ -77537,15 +77537,15 @@
         <v>100</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="17" customFormat="1">
       <c r="A70" s="11" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>146</v>
@@ -77564,15 +77564,15 @@
         <v>100</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="17" customFormat="1">
       <c r="A71" s="11" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>147</v>
@@ -77591,15 +77591,15 @@
         <v>100</v>
       </c>
       <c r="I71" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="17" customFormat="1">
       <c r="A72" s="11" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>240</v>
@@ -77618,7 +77618,7 @@
         <v>100</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="3" customFormat="1">
@@ -78496,7 +78496,7 @@
         <v>242</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>241</v>
@@ -78508,16 +78508,16 @@
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>817</v>
-      </c>
       <c r="H1" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="45">
@@ -78525,7 +78525,7 @@
         <v>365</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>369</v>
@@ -78537,7 +78537,7 @@
         <v>308</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>247</v>
@@ -78548,7 +78548,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>22</v>
@@ -78560,7 +78560,7 @@
         <v>312</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>247</v>
@@ -78571,10 +78571,10 @@
         <v>393</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D4" s="37" t="s">
         <v>301</v>
@@ -78583,7 +78583,7 @@
         <v>321</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>247</v>
@@ -78591,10 +78591,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="27" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
@@ -78606,7 +78606,7 @@
         <v>327</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>247</v>
@@ -78614,125 +78614,125 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="27" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E6" t="s">
         <v>327</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C7" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>301</v>
       </c>
       <c r="E7" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="27" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C8" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E8" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I8" s="45" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C9" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D9" s="37" t="s">
         <v>301</v>
       </c>
       <c r="E9" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C10" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E10" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E11" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F11" s="49" t="s">
         <v>218</v>
@@ -78740,42 +78740,42 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C12" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E12" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I12" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C13" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E13" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F13" s="49" t="s">
         <v>218</v>
@@ -78783,42 +78783,42 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C14" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E14" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I14" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C15" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>218</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F15" s="49" t="s">
         <v>218</v>
@@ -78832,19 +78832,19 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C16" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F16" s="49" t="s">
         <v>218</v>
@@ -78858,19 +78858,19 @@
     </row>
     <row r="17" spans="1:8" ht="97.25" customHeight="1">
       <c r="A17" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C17" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>218</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F17" s="49" t="s">
         <v>218</v>
@@ -78884,19 +78884,19 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F18" s="49" t="s">
         <v>218</v>
@@ -78910,19 +78910,19 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>693</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>812</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>695</v>
       </c>
-      <c r="B19" s="42" t="s">
-        <v>814</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>697</v>
-      </c>
       <c r="D19" s="38" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F19" s="49" t="s">
         <v>218</v>
@@ -78930,59 +78930,59 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D20" s="38" t="s">
         <v>299</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D21" s="38" t="s">
         <v>299</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>104</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F22" s="49" t="s">
         <v>218</v>
@@ -78996,19 +78996,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F23" s="49" t="s">
         <v>218</v>
@@ -79022,19 +79022,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F24" s="49" t="s">
         <v>218</v>
@@ -79042,19 +79042,19 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F25" s="49" t="s">
         <v>218</v>
@@ -79062,19 +79062,19 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F26" s="49" t="s">
         <v>218</v>
@@ -79088,19 +79088,19 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D27" s="38" t="s">
         <v>218</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F27" s="49" t="s">
         <v>218</v>
@@ -79108,19 +79108,19 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F28" s="49" t="s">
         <v>218</v>

--- a/inst/extdata/ISRaD_Template_Info.xlsx
+++ b/inst/extdata/ISRaD_Template_Info.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greymonroe/github/ISRaD/inst/extdata/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7DD3A3-B47C-1748-B734-C21A7436F679}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="460" windowWidth="30600" windowHeight="18840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="460" windowWidth="30600" windowHeight="18840" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="general info" sheetId="6" r:id="rId1"/>
@@ -23,13 +17,13 @@
     <sheet name="fraction" sheetId="5" r:id="rId8"/>
     <sheet name="incubation" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -986,7 +980,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="134"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">, which is a linked list of </t>
@@ -1008,7 +1002,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="134"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">(or tabs) descibing a dataset. Synthesis datasets may be entered as a single template but will be automatically partioned into discrete entries based on the original data sources compiled for the synthesis. </t>
@@ -2662,14 +2656,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2787,6 +2781,11 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3110,7 +3109,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3240,6 +3239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="290">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3867,14 +3867,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="117.6640625" customWidth="1"/>
@@ -3888,7 +3888,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="64">
+    <row r="2" spans="1:2" ht="60">
       <c r="A2" s="5" t="s">
         <v>260</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="48">
+    <row r="3" spans="1:2" ht="30">
       <c r="A3" s="5" t="s">
         <v>310</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="32">
+    <row r="4" spans="1:2" ht="30">
       <c r="A4" s="5" t="s">
         <v>304</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="48">
+    <row r="5" spans="1:2" ht="45">
       <c r="A5" s="5" t="s">
         <v>262</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="160">
+    <row r="6" spans="1:2" ht="150">
       <c r="A6" s="5" t="s">
         <v>261</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="80">
+    <row r="7" spans="1:2" ht="75">
       <c r="A7" s="5" t="s">
         <v>278</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="64">
+    <row r="8" spans="1:2" ht="60">
       <c r="A8" s="5" t="s">
         <v>302</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="80">
+    <row r="9" spans="1:2" ht="75">
       <c r="A9" s="5" t="s">
         <v>303</v>
       </c>
@@ -3994,14 +3994,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.33203125" bestFit="1" customWidth="1"/>
@@ -4030,7 +4030,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
+    <row r="2" spans="1:6" ht="28">
       <c r="A2" s="24" t="s">
         <v>365</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
+    <row r="3" spans="1:6" ht="28">
       <c r="A3" s="24" t="s">
         <v>370</v>
       </c>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" ht="30">
+    <row r="4" spans="1:6" ht="28">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="30">
+    <row r="12" spans="1:6" ht="28">
       <c r="A12" s="12" t="s">
         <v>215</v>
       </c>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6">
       <c r="A13" s="26" t="s">
         <v>373</v>
       </c>
@@ -4259,14 +4259,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.33203125" style="1" customWidth="1"/>
@@ -4305,7 +4305,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30">
+    <row r="2" spans="1:9" ht="28">
       <c r="A2" s="24" t="s">
         <v>365</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30">
+    <row r="7" spans="1:9" ht="28">
       <c r="A7" s="11" t="s">
         <v>380</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30">
+    <row r="8" spans="1:9" ht="28">
       <c r="A8" s="11" t="s">
         <v>28</v>
       </c>
@@ -4493,14 +4493,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="107" zoomScaleNormal="70" zoomScalePageLayoutView="119" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="107" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.1640625" style="1" customWidth="1"/>
@@ -4541,7 +4541,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30">
+    <row r="2" spans="1:9" ht="28">
       <c r="A2" s="24" t="s">
         <v>365</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30">
+    <row r="5" spans="1:9" ht="28">
       <c r="A5" s="10" t="s">
         <v>393</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30">
+    <row r="9" spans="1:9" ht="28">
       <c r="A9" s="10" t="s">
         <v>383</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30">
+    <row r="20" spans="1:9" ht="28">
       <c r="A20" s="11" t="s">
         <v>388</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="30">
+    <row r="24" spans="1:9" ht="28">
       <c r="A24" s="14" t="s">
         <v>408</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30">
+    <row r="25" spans="1:9" ht="28">
       <c r="A25" s="11" t="s">
         <v>409</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="60">
+    <row r="26" spans="1:9" ht="56">
       <c r="A26" s="14" t="s">
         <v>410</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="45">
+    <row r="29" spans="1:9" ht="42">
       <c r="A29" s="11" t="s">
         <v>413</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="30">
+    <row r="30" spans="1:9" ht="28">
       <c r="A30" s="14" t="s">
         <v>414</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="30">
+    <row r="31" spans="1:9" ht="28">
       <c r="A31" s="14" t="s">
         <v>415</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30">
+    <row r="32" spans="1:9" ht="28">
       <c r="A32" s="14" t="s">
         <v>416</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="45">
+    <row r="34" spans="1:9" ht="42">
       <c r="A34" s="14" t="s">
         <v>418</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="30">
+    <row r="36" spans="1:9" ht="28">
       <c r="A36" s="11" t="s">
         <v>391</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="30">
+    <row r="37" spans="1:9" ht="28">
       <c r="A37" s="11" t="s">
         <v>392</v>
       </c>
@@ -5394,7 +5394,7 @@
     <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5404,14 +5404,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="117" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="117" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
@@ -5451,7 +5451,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30">
+    <row r="2" spans="1:9" ht="28">
       <c r="A2" s="24" t="s">
         <v>365</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="16">
       <c r="A8" s="27" t="s">
         <v>421</v>
       </c>
@@ -6212,7 +6212,7 @@
     <mergeCell ref="E6:E7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E27" r:id="rId1" display="Radiocarbon Laboratory ID (look up here)" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="E27" r:id="rId1" display="Radiocarbon Laboratory ID (look up here)"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6225,14 +6225,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I280"/>
   <sheetViews>
-    <sheetView zoomScale="111" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScale="111" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="19.83203125" style="23" customWidth="1"/>
     <col min="3" max="3" width="34.5" style="23" customWidth="1"/>
@@ -6389,11 +6389,11 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="39" t="s">
         <v>592</v>
       </c>
       <c r="B7" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>593</v>
@@ -6472,7 +6472,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30">
+    <row r="11" spans="1:9" ht="28">
       <c r="A11" s="11" t="s">
         <v>585</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30">
+    <row r="19" spans="1:8" ht="28">
       <c r="A19" s="11" t="s">
         <v>515</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30">
+    <row r="20" spans="1:8" ht="28">
       <c r="A20" s="11" t="s">
         <v>516</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30">
+    <row r="21" spans="1:8" ht="28">
       <c r="A21" s="11" t="s">
         <v>517</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="30">
+    <row r="42" spans="1:8" ht="28">
       <c r="A42" s="11" t="s">
         <v>532</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="30">
+    <row r="43" spans="1:8" ht="28">
       <c r="A43" s="11" t="s">
         <v>533</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="30">
+    <row r="45" spans="1:8" ht="28">
       <c r="A45" s="11" t="s">
         <v>535</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="30">
+    <row r="46" spans="1:8" ht="28">
       <c r="A46" s="11" t="s">
         <v>536</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="30">
+    <row r="56" spans="1:9" ht="28">
       <c r="A56" s="11" t="s">
         <v>545</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="30">
+    <row r="57" spans="1:9" ht="28">
       <c r="A57" s="11" t="s">
         <v>783</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="30">
+    <row r="60" spans="1:9" ht="28">
       <c r="A60" s="11" t="s">
         <v>548</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="30">
+    <row r="68" spans="1:8" ht="28">
       <c r="A68" s="11" t="s">
         <v>554</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30">
+    <row r="73" spans="1:8" ht="28">
       <c r="A73" s="11" t="s">
         <v>558</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="30">
+    <row r="78" spans="1:8" ht="28">
       <c r="A78" s="11" t="s">
         <v>563</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="30">
+    <row r="82" spans="1:9" ht="28">
       <c r="A82" s="11" t="s">
         <v>567</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="30">
+    <row r="94" spans="1:9" ht="28">
       <c r="A94" s="11" t="s">
         <v>578</v>
       </c>
@@ -9817,14 +9817,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16385"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="200" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="200" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23.1640625" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" style="34" customWidth="1"/>
@@ -9866,7 +9866,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="2" spans="1:9" customFormat="1" ht="45">
+    <row r="2" spans="1:9" customFormat="1" ht="42">
       <c r="A2" s="24" t="s">
         <v>365</v>
       </c>
@@ -75889,14 +75889,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I349"/>
   <sheetViews>
-    <sheetView topLeftCell="D8" zoomScale="114" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="D8" zoomScale="114" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="44" customWidth="1"/>
@@ -75938,7 +75938,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="2" spans="1:9" customFormat="1" ht="30">
+    <row r="2" spans="1:9" customFormat="1" ht="28">
       <c r="A2" s="24" t="s">
         <v>365</v>
       </c>
@@ -76050,7 +76050,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="17" customFormat="1" ht="30">
+    <row r="7" spans="1:9" s="17" customFormat="1" ht="28">
       <c r="A7" s="10" t="s">
         <v>762</v>
       </c>
@@ -76070,7 +76070,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="17" customFormat="1" ht="30">
+    <row r="8" spans="1:9" s="17" customFormat="1" ht="28">
       <c r="A8" s="11" t="s">
         <v>764</v>
       </c>
@@ -76407,7 +76407,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="17" customFormat="1" ht="30">
+    <row r="23" spans="1:8" s="17" customFormat="1" ht="28">
       <c r="A23" s="11" t="s">
         <v>729</v>
       </c>
@@ -76433,7 +76433,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="17" customFormat="1" ht="28">
+    <row r="24" spans="1:8" s="17" customFormat="1">
       <c r="A24" s="11" t="s">
         <v>732</v>
       </c>
@@ -76459,7 +76459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="17" customFormat="1" ht="30">
+    <row r="25" spans="1:8" s="17" customFormat="1" ht="28">
       <c r="A25" s="11" t="s">
         <v>733</v>
       </c>
@@ -76729,7 +76729,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="17" customFormat="1" ht="30">
+    <row r="37" spans="1:9" s="17" customFormat="1" ht="28">
       <c r="A37" s="11" t="s">
         <v>847</v>
       </c>
@@ -76768,7 +76768,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="17" customFormat="1" ht="30">
+    <row r="39" spans="1:9" s="17" customFormat="1" ht="28">
       <c r="A39" s="11" t="s">
         <v>849</v>
       </c>
@@ -77002,7 +77002,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="17" customFormat="1" ht="30">
+    <row r="49" spans="1:9" s="17" customFormat="1" ht="28">
       <c r="A49" s="11" t="s">
         <v>794</v>
       </c>
@@ -77120,7 +77120,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="17" customFormat="1" ht="30">
+    <row r="54" spans="1:9" s="17" customFormat="1" ht="28">
       <c r="A54" s="11" t="s">
         <v>799</v>
       </c>
@@ -78473,14 +78473,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="111" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="111" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" style="42" customWidth="1"/>
@@ -78520,7 +78520,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45">
+    <row r="2" spans="1:9" ht="42">
       <c r="A2" s="24" t="s">
         <v>365</v>
       </c>
@@ -78613,11 +78613,11 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="59" t="s">
         <v>584</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>811</v>
+      <c r="B6" s="40" t="s">
+        <v>812</v>
       </c>
       <c r="C6" t="s">
         <v>679</v>
